--- a/개발문서/영화관 - 화면목록표.xlsx
+++ b/개발문서/영화관 - 화면목록표.xlsx
@@ -1,877 +1,935 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sist\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A38C993-6AA6-4541-AE08-FD2F5DBD03C6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1159FD66-7E2E-4346-8103-6B185D832C74}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="화면 목록" sheetId="3" r:id="rId1"/>
+    <sheet name="화면 목록" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="273">
+  <si>
+    <t>작성일</t>
+  </si>
+  <si>
+    <t>작성자</t>
+  </si>
+  <si>
+    <t>갱신일</t>
+  </si>
   <si>
     <t>화면 설계</t>
   </si>
   <si>
+    <t>갱신자</t>
+  </si>
+  <si>
+    <t>승인일</t>
+  </si>
+  <si>
+    <t>승인자</t>
+  </si>
+  <si>
+    <t>회원</t>
+  </si>
+  <si>
     <t>멀티플렉스 영화관 관리 시스템</t>
   </si>
   <si>
-    <t>작성일</t>
-  </si>
-  <si>
     <t>20.01.09</t>
   </si>
   <si>
-    <t>작성자</t>
+    <t>memberId</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>[화면 ID 구성]</t>
+  </si>
+  <si>
+    <t>OOO + XXX</t>
+  </si>
+  <si>
+    <t>공통</t>
+  </si>
+  <si>
+    <t>ALL</t>
+  </si>
+  <si>
+    <t>일련 번호</t>
+  </si>
+  <si>
+    <t>USR</t>
+  </si>
+  <si>
+    <t>관리자</t>
+  </si>
+  <si>
+    <t>ADM</t>
+  </si>
+  <si>
+    <t>[화면 목록]</t>
+  </si>
+  <si>
+    <t>화면ID</t>
+  </si>
+  <si>
+    <t>화면 명칭</t>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>Method</t>
+  </si>
+  <si>
+    <t>Parameter</t>
+  </si>
+  <si>
+    <t>From</t>
+  </si>
+  <si>
+    <t>ALL_00</t>
+  </si>
+  <si>
+    <t>초기 화면</t>
+  </si>
+  <si>
+    <t>/</t>
+  </si>
+  <si>
+    <t>GET</t>
+  </si>
+  <si>
+    <t>ALL_01</t>
+  </si>
+  <si>
+    <t>회원가입 화면</t>
+  </si>
+  <si>
+    <t>/member/join</t>
+  </si>
+  <si>
+    <t>입력화면</t>
+  </si>
+  <si>
+    <t>POST</t>
+  </si>
+  <si>
+    <t>모든 항목(memberVO)</t>
+  </si>
+  <si>
+    <t>ALL_02</t>
+  </si>
+  <si>
+    <t>로그인 화면</t>
+  </si>
+  <si>
+    <t>/customLogin</t>
+  </si>
+  <si>
+    <t>memberId, memberPw</t>
+  </si>
+  <si>
+    <t>ALL_03_01</t>
+  </si>
+  <si>
+    <t>영화 랭킹 조회 화면</t>
+  </si>
+  <si>
+    <t>/movie/list</t>
+  </si>
+  <si>
+    <t>pageNum, amount, type, keyword</t>
+  </si>
+  <si>
+    <t>ALL_03_02</t>
+  </si>
+  <si>
+    <t>영화/한줄평 상세보기 화면</t>
+  </si>
+  <si>
+    <t>/movie/get</t>
+  </si>
+  <si>
+    <t>/movie/remove</t>
+  </si>
+  <si>
+    <t>/comment/new</t>
+  </si>
+  <si>
+    <t>모든 항목(CommentVO)</t>
+  </si>
+  <si>
+    <t>/comment</t>
+  </si>
+  <si>
+    <t>pageNum, movieNo</t>
+  </si>
+  <si>
+    <t>PUT</t>
+  </si>
+  <si>
+    <t>DELETE</t>
+  </si>
+  <si>
+    <t>memberId, commentNo</t>
+  </si>
+  <si>
+    <t>ALL_04</t>
+  </si>
+  <si>
+    <t>상영시간표 조회 화면</t>
+  </si>
+  <si>
+    <t>/schedule/get</t>
+  </si>
+  <si>
+    <t>scheduleDate</t>
+  </si>
+  <si>
+    <t>/schedule/remove</t>
+  </si>
+  <si>
+    <t>ALL_05_01</t>
+  </si>
+  <si>
+    <t>리뷰 조회 화면</t>
+  </si>
+  <si>
+    <t>/review/list</t>
+  </si>
+  <si>
+    <t>pageNum, amount, keyword, type</t>
+  </si>
+  <si>
+    <t>ALL_05_02</t>
+  </si>
+  <si>
+    <t>리뷰글 상세보기 화면</t>
+  </si>
+  <si>
+    <t>/review/get</t>
+  </si>
+  <si>
+    <t>/review/remove</t>
+  </si>
+  <si>
+    <t>/reply/new</t>
+  </si>
+  <si>
+    <t>replyVo,pageNum</t>
+  </si>
+  <si>
+    <t>movieNo</t>
+  </si>
+  <si>
+    <t>/reply</t>
+  </si>
+  <si>
+    <t>replyNo</t>
+  </si>
+  <si>
+    <t>replyNo, replyContent</t>
+  </si>
+  <si>
+    <t>ALL_06_01</t>
+  </si>
+  <si>
+    <t>기프티콘 조회 화면</t>
+  </si>
+  <si>
+    <t>/gift/list</t>
+  </si>
+  <si>
+    <t>ALL_06_02</t>
   </si>
   <si>
     <t>예매 완료 화면</t>
   </si>
   <si>
-    <t>갱신일</t>
-  </si>
-  <si>
-    <t>갱신자</t>
-  </si>
-  <si>
-    <t>승인일</t>
-  </si>
-  <si>
-    <t>승인자</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>[화면 ID 구성]</t>
-  </si>
-  <si>
-    <t>화면ID</t>
-  </si>
-  <si>
-    <t>화면 명칭</t>
-  </si>
-  <si>
-    <t>URL</t>
-  </si>
-  <si>
-    <t>Method</t>
-  </si>
-  <si>
-    <t>Parameter</t>
-  </si>
-  <si>
-    <t>ALL_04</t>
-  </si>
-  <si>
-    <t>상영시간표 조회 화면</t>
-  </si>
-  <si>
-    <t>/schedule/get</t>
-  </si>
-  <si>
-    <t>GET</t>
-  </si>
-  <si>
-    <t>OOO + XXX</t>
-  </si>
-  <si>
-    <t>공통</t>
-  </si>
-  <si>
-    <t>ALL</t>
-  </si>
-  <si>
-    <t>일련 번호</t>
-  </si>
-  <si>
-    <t>회원</t>
-  </si>
-  <si>
-    <t>USR</t>
-  </si>
-  <si>
-    <t>관리자</t>
-  </si>
-  <si>
-    <t>ADM</t>
-  </si>
-  <si>
-    <t>[화면 목록]</t>
-  </si>
-  <si>
-    <t>From</t>
-  </si>
-  <si>
-    <t>ALL_00</t>
-  </si>
-  <si>
-    <t>초기 화면</t>
-  </si>
-  <si>
-    <t>/</t>
-  </si>
-  <si>
-    <t>ALL_01</t>
-  </si>
-  <si>
-    <t>회원가입 화면</t>
-  </si>
-  <si>
-    <t>/member/join</t>
-  </si>
-  <si>
-    <t>입력화면</t>
-  </si>
-  <si>
-    <t>POST</t>
-  </si>
-  <si>
-    <t>모든 항목(memberVO)</t>
-  </si>
-  <si>
-    <t>ALL_02</t>
-  </si>
-  <si>
-    <t>로그인 화면</t>
-  </si>
-  <si>
-    <t>/login</t>
-  </si>
-  <si>
-    <t>ALL_03_01</t>
-  </si>
-  <si>
-    <t>영화 랭킹 조회 화면</t>
-  </si>
-  <si>
-    <t>/movie/list</t>
-  </si>
-  <si>
-    <t>ALL_03_02</t>
-  </si>
-  <si>
-    <t>영화/한줄평 상세보기 화면</t>
-  </si>
-  <si>
-    <t>/movie/get</t>
-  </si>
-  <si>
-    <t>/movie/remove</t>
-  </si>
-  <si>
-    <t>/comment/new</t>
-  </si>
-  <si>
-    <t>모든 항목(CommentVO)</t>
-  </si>
-  <si>
-    <t>/comment</t>
-  </si>
-  <si>
-    <t>pageNum, movieNo</t>
-  </si>
-  <si>
-    <t>PUT</t>
+    <t>기프티콘 상세보기 화면</t>
+  </si>
+  <si>
+    <t>/gift/get</t>
+  </si>
+  <si>
+    <t>giftNo</t>
+  </si>
+  <si>
+    <t>/gift/remove</t>
+  </si>
+  <si>
+    <t>모든 항목(GiftVO)</t>
+  </si>
+  <si>
+    <t>ALL_07_01</t>
+  </si>
+  <si>
+    <t>공지사항 조회 화면</t>
+  </si>
+  <si>
+    <t>/notice/list</t>
+  </si>
+  <si>
+    <t>ALL_07_02</t>
+  </si>
+  <si>
+    <t>공지사항 상세보기 화면</t>
+  </si>
+  <si>
+    <t>/notice/get</t>
+  </si>
+  <si>
+    <t>noticeNo, pageNum, amount, type, keyword</t>
+  </si>
+  <si>
+    <t>/notice/remove</t>
+  </si>
+  <si>
+    <t>ALL_08_01</t>
+  </si>
+  <si>
+    <t>습득물 조회 화면</t>
+  </si>
+  <si>
+    <t>/lost/list</t>
+  </si>
+  <si>
+    <t>ALL_08_02</t>
+  </si>
+  <si>
+    <t>습득물 상세보기 화면</t>
+  </si>
+  <si>
+    <t>/lost/get</t>
+  </si>
+  <si>
+    <t>/lost/remove</t>
+  </si>
+  <si>
+    <t>ALL_09_01</t>
+  </si>
+  <si>
+    <t>건의사항 조회 화면</t>
+  </si>
+  <si>
+    <t>/suggest/list</t>
+  </si>
+  <si>
+    <t>ALL_09_02</t>
+  </si>
+  <si>
+    <t>건의사항 상세보기 화면</t>
+  </si>
+  <si>
+    <t>/suggest/get</t>
+  </si>
+  <si>
+    <t>/suggest/remove</t>
+  </si>
+  <si>
+    <t>USR_00</t>
+  </si>
+  <si>
+    <t>ID찾기 화면</t>
+  </si>
+  <si>
+    <t>/member/findId</t>
+  </si>
+  <si>
+    <t>USR_01</t>
+  </si>
+  <si>
+    <t>PW찾기 화면</t>
+  </si>
+  <si>
+    <t>/member/findPw</t>
+  </si>
+  <si>
+    <t>USR_02_01_01</t>
+  </si>
+  <si>
+    <t>리뷰 수정 화면</t>
+  </si>
+  <si>
+    <t>/review/modify</t>
+  </si>
+  <si>
+    <t>결제 완료 화면</t>
+  </si>
+  <si>
+    <t>USR_02_02</t>
+  </si>
+  <si>
+    <t>내 정보 조회</t>
+  </si>
+  <si>
+    <t>/member/get</t>
+  </si>
+  <si>
+    <t>USR_02_02_01</t>
+  </si>
+  <si>
+    <t>내 정보 수정 화면</t>
+  </si>
+  <si>
+    <t>/member/modify</t>
+  </si>
+  <si>
+    <t>USR_02_04</t>
+  </si>
+  <si>
+    <t>내 기프티콘 조회 화면</t>
+  </si>
+  <si>
+    <t>/myGift/list</t>
+  </si>
+  <si>
+    <t>pageNum, amount, memberId</t>
+  </si>
+  <si>
+    <t>USR_02_04_01</t>
+  </si>
+  <si>
+    <t>내 기프티콘 상세보기 화면</t>
+  </si>
+  <si>
+    <t>/myGift/get</t>
+  </si>
+  <si>
+    <t>myGiftNo, memberId</t>
+  </si>
+  <si>
+    <t>/myGift/extend</t>
+  </si>
+  <si>
+    <t>/myGift/refund</t>
+  </si>
+  <si>
+    <t>USR_02_05</t>
+  </si>
+  <si>
+    <t>내 한줄평 조회 화면</t>
+  </si>
+  <si>
+    <t>/myComment/mylist</t>
+  </si>
+  <si>
+    <t>USR_02_06</t>
+  </si>
+  <si>
+    <t>내 예매 내역 조회 화면</t>
+  </si>
+  <si>
+    <t>/reserve/list</t>
+  </si>
+  <si>
+    <t>memberId, pageNum, amount</t>
+  </si>
+  <si>
+    <t>/reserve/refund</t>
+  </si>
+  <si>
+    <t>reserveNo, memberId</t>
+  </si>
+  <si>
+    <t>USR_02_06_01</t>
+  </si>
+  <si>
+    <t>리뷰 작성 화면</t>
+  </si>
+  <si>
+    <t>/review/register</t>
+  </si>
+  <si>
+    <t>reviewVO</t>
+  </si>
+  <si>
+    <t>USR_03</t>
+  </si>
+  <si>
+    <t>/reserve/register</t>
+  </si>
+  <si>
+    <t>USR_03_01</t>
+  </si>
+  <si>
+    <t>좌석/인원 수 선택 화면</t>
+  </si>
+  <si>
+    <t>/reserve/seat</t>
+  </si>
+  <si>
+    <t>scheduleVO</t>
+  </si>
+  <si>
+    <t>/reserve/reserve</t>
+  </si>
+  <si>
+    <t>reserveVO</t>
+  </si>
+  <si>
+    <t>USR_04</t>
+  </si>
+  <si>
+    <t>신고 화면</t>
+  </si>
+  <si>
+    <t>/report/review/register</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> reviewNo</t>
+  </si>
+  <si>
+    <t>ReviewReportVO</t>
+  </si>
+  <si>
+    <t>/report/reply/register</t>
+  </si>
+  <si>
+    <t>replyReportVo</t>
+  </si>
+  <si>
+    <t>commentNo</t>
+  </si>
+  <si>
+    <t>/report/comment/register</t>
+  </si>
+  <si>
+    <t>USR_05_01</t>
+  </si>
+  <si>
+    <t>건의사항 등록 화면</t>
+  </si>
+  <si>
+    <t>/suggest/register</t>
+  </si>
+  <si>
+    <t>모든항목(suggestVO)</t>
+  </si>
+  <si>
+    <t>USR_05_02</t>
+  </si>
+  <si>
+    <t>건의사항 수정 화면</t>
+  </si>
+  <si>
+    <t>/suggest/modify</t>
+  </si>
+  <si>
+    <t>USR_06_01</t>
+  </si>
+  <si>
+    <t>/reserve/get</t>
+  </si>
+  <si>
+    <t>reserveNo</t>
+  </si>
+  <si>
+    <t>USR_06_02</t>
+  </si>
+  <si>
+    <t>/myGift/pay</t>
+  </si>
+  <si>
+    <t>myGiftNo</t>
+  </si>
+  <si>
+    <t>ADM_01_01</t>
+  </si>
+  <si>
+    <t>회원 목록 조회 화면</t>
+  </si>
+  <si>
+    <t>/member/list</t>
+  </si>
+  <si>
+    <t>pageNum, amount,
+type, keyword</t>
+  </si>
+  <si>
+    <t>ADM_01_01_01</t>
+  </si>
+  <si>
+    <t>회원 상세보기 화면</t>
+  </si>
+  <si>
+    <t>/member/remove</t>
+  </si>
+  <si>
+    <t>ADM_01_02</t>
+  </si>
+  <si>
+    <t>리뷰 댓글 신고 조회 화면</t>
+  </si>
+  <si>
+    <t>/report/reply/list</t>
+  </si>
+  <si>
+    <t>pageNum,amount</t>
+  </si>
+  <si>
+    <t>ADM_01_02_01</t>
+  </si>
+  <si>
+    <t>/report/comment/get</t>
+  </si>
+  <si>
+    <t>/report/reply/get</t>
+  </si>
+  <si>
+    <t>ADM_01_03</t>
+  </si>
+  <si>
+    <t>한줄평 신고 조회 화면</t>
+  </si>
+  <si>
+    <t>/report/comment/list</t>
+  </si>
+  <si>
+    <t>/report/comment/remove</t>
+  </si>
+  <si>
+    <t>ADM_01_04</t>
+  </si>
+  <si>
+    <t>리뷰 신고 조회 화면</t>
+  </si>
+  <si>
+    <t>/report/review/list</t>
+  </si>
+  <si>
+    <t>pageNum, amount</t>
+  </si>
+  <si>
+    <t>/report/review/remove</t>
+  </si>
+  <si>
+    <t>reviewNo,pageNum,amount</t>
+  </si>
+  <si>
+    <t>ADM_01_04_01</t>
+  </si>
+  <si>
+    <t>리뷰 신고글 상세보기 화면</t>
+  </si>
+  <si>
+    <t>/report/review/get</t>
+  </si>
+  <si>
+    <t>ADM_02_01</t>
+  </si>
+  <si>
+    <t>영화 등록 화면</t>
+  </si>
+  <si>
+    <t>/movie/register</t>
+  </si>
+  <si>
+    <t>모든항목(MovieVO)</t>
+  </si>
+  <si>
+    <t>ADM_02_02</t>
+  </si>
+  <si>
+    <t>영화 수정 화면</t>
+  </si>
+  <si>
+    <t>/movie/modify</t>
+  </si>
+  <si>
+    <t>ADM_03_01</t>
+  </si>
+  <si>
+    <t>상영시간표 등록/수정 화면</t>
+  </si>
+  <si>
+    <t>/schedule/register</t>
+  </si>
+  <si>
+    <t>/schedule/modify</t>
+  </si>
+  <si>
+    <t>/schedule/delete</t>
+  </si>
+  <si>
+    <t>/schedule/cancel</t>
+  </si>
+  <si>
+    <t>regSeq</t>
+  </si>
+  <si>
+    <t>ADM_04_01</t>
+  </si>
+  <si>
+    <t>기프티콘 등록 화면</t>
+  </si>
+  <si>
+    <t>/gift/register</t>
+  </si>
+  <si>
+    <t>모든항목(GiftVO)</t>
+  </si>
+  <si>
+    <t>ADM_04_02</t>
+  </si>
+  <si>
+    <t>기프티콘 수정 화면</t>
+  </si>
+  <si>
+    <t>/gift/modify</t>
+  </si>
+  <si>
+    <t>ADM_05_01</t>
+  </si>
+  <si>
+    <t>공지사항 등록 화면</t>
+  </si>
+  <si>
+    <t>/notice/register</t>
+  </si>
+  <si>
+    <t>모든항목(NoticeVO)</t>
+  </si>
+  <si>
+    <t>ADM_05_02</t>
+  </si>
+  <si>
+    <t>공지사항 수정 화면</t>
+  </si>
+  <si>
+    <t>/notice/modify</t>
+  </si>
+  <si>
+    <t>ADM_06_01</t>
+  </si>
+  <si>
+    <t>습득물 등록 화면</t>
+  </si>
+  <si>
+    <t>/lost/register</t>
+  </si>
+  <si>
+    <t>모든항목(lostVo)</t>
+  </si>
+  <si>
+    <t>ADM_06_02</t>
+  </si>
+  <si>
+    <t>습득물 수정 화면</t>
+  </si>
+  <si>
+    <t>/lost/modify</t>
+  </si>
+  <si>
+    <t>movieNo, pageNum, amount, 
+keyword, type</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>movieNo, pageNum, amount,
+keyword, type</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>reviewNo, pageNum, amount, 
+keyword, type</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>reviewNo, pageNum ,amount,
+keyword, type</t>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>memberId, content, star, commentNo</t>
-  </si>
-  <si>
-    <t>DELETE</t>
-  </si>
-  <si>
-    <t>memberId, commentNo</t>
-  </si>
-  <si>
-    <t>scheduleDate</t>
-  </si>
-  <si>
-    <t>/schedule/remove</t>
-  </si>
-  <si>
-    <t>ALL_05_01</t>
-  </si>
-  <si>
-    <t>리뷰 조회 화면</t>
-  </si>
-  <si>
-    <t>/review/list</t>
-  </si>
-  <si>
-    <t>ALL_05_02</t>
-  </si>
-  <si>
-    <t>리뷰글 상세보기 화면</t>
-  </si>
-  <si>
-    <t>/review/get</t>
-  </si>
-  <si>
-    <t>/review/remove</t>
-  </si>
-  <si>
-    <t>/reply/new</t>
-  </si>
-  <si>
-    <t>replyVo,pageNum</t>
-  </si>
-  <si>
-    <t>/reply</t>
-  </si>
-  <si>
-    <t>replyNo</t>
-  </si>
-  <si>
-    <t>replyNo, replyContent</t>
-  </si>
-  <si>
-    <t>ALL_06_01</t>
-  </si>
-  <si>
-    <t>기프티콘 조회 화면</t>
-  </si>
-  <si>
-    <t>/gift/list</t>
-  </si>
-  <si>
-    <t>type, keyword</t>
-  </si>
-  <si>
-    <t>ALL_06_02</t>
-  </si>
-  <si>
-    <t>기프티콘 상세보기 화면</t>
-  </si>
-  <si>
-    <t>/gift/get</t>
-  </si>
-  <si>
-    <t>giftNo, keyword</t>
-  </si>
-  <si>
-    <t>/gift/remove</t>
-  </si>
-  <si>
-    <t>ALL_07_01</t>
-  </si>
-  <si>
-    <t>공지사항 조회 화면</t>
-  </si>
-  <si>
-    <t>/notice/list</t>
-  </si>
-  <si>
-    <t>pageNum, amount, type, 
-keyword</t>
-  </si>
-  <si>
-    <t>ALL_07_02</t>
-  </si>
-  <si>
-    <t>공지사항 상세보기 화면</t>
-  </si>
-  <si>
-    <t>/notice/get</t>
-  </si>
-  <si>
-    <t>noticeNo, pageNum, 
-amount, type, keyword</t>
-  </si>
-  <si>
-    <t>/notice/remove</t>
-  </si>
-  <si>
-    <t>noticeNo, pageNum, amount, type</t>
-  </si>
-  <si>
-    <t>ALL_08_01</t>
-  </si>
-  <si>
-    <t>습득물 조회 화면</t>
-  </si>
-  <si>
-    <t>/lost/list</t>
-  </si>
-  <si>
-    <t>pageNum,amount</t>
-  </si>
-  <si>
-    <t>ALL_08_02</t>
-  </si>
-  <si>
-    <t>습득물 상세보기 화면</t>
-  </si>
-  <si>
-    <t>/lost/get</t>
-  </si>
-  <si>
-    <t>/lost/remove</t>
-  </si>
-  <si>
-    <t>ALL_09_01</t>
-  </si>
-  <si>
-    <t>건의사항 조회 화면</t>
-  </si>
-  <si>
-    <t>/suggest/list</t>
-  </si>
-  <si>
-    <t>ALL_09_02</t>
-  </si>
-  <si>
-    <t>건의사항 상세보기 화면</t>
-  </si>
-  <si>
-    <t>/suggest/get</t>
-  </si>
-  <si>
-    <t>/suggest/remove</t>
-  </si>
-  <si>
-    <t>USR_00</t>
-  </si>
-  <si>
-    <t>ID찾기 화면</t>
-  </si>
-  <si>
-    <t>/member/findId</t>
-  </si>
-  <si>
-    <t>memberEmail, memberPhone</t>
-  </si>
-  <si>
-    <t>USR_01</t>
-  </si>
-  <si>
-    <t>PW찾기 화면</t>
-  </si>
-  <si>
-    <t>/member/findPw</t>
-  </si>
-  <si>
-    <t>USR_02_01_01</t>
-  </si>
-  <si>
-    <t>리뷰 수정 화면</t>
-  </si>
-  <si>
-    <t>/review/modify</t>
-  </si>
-  <si>
-    <t>USR_02_02</t>
-  </si>
-  <si>
-    <t>내 정보 조회</t>
-  </si>
-  <si>
-    <t>/member/get</t>
-  </si>
-  <si>
-    <t>memberId</t>
-  </si>
-  <si>
-    <t>USR_02_02_01</t>
-  </si>
-  <si>
-    <t>내 정보 수정 화면</t>
-  </si>
-  <si>
-    <t>/member/modify</t>
-  </si>
-  <si>
-    <t>USR_02_04</t>
-  </si>
-  <si>
-    <t>내 기프티콘 조회 화면</t>
-  </si>
-  <si>
-    <t>/myGift/list</t>
-  </si>
-  <si>
-    <t>pageNum, amount</t>
-  </si>
-  <si>
-    <t>USR_02_04_01</t>
-  </si>
-  <si>
-    <t>내 기프티콘 상세보기 화면</t>
-  </si>
-  <si>
-    <t>/myGift/get</t>
-  </si>
-  <si>
-    <t>myGiftNo</t>
-  </si>
-  <si>
-    <t>/myGift/extend</t>
-  </si>
-  <si>
-    <t>myGiftNo, expireDate, extendChk</t>
-  </si>
-  <si>
-    <t>/myGift/refund</t>
-  </si>
-  <si>
-    <t>USR_02_05</t>
-  </si>
-  <si>
-    <t>내 한줄평 조회 화면</t>
-  </si>
-  <si>
-    <t>/comment/mylist</t>
-  </si>
-  <si>
-    <t>pageNum, amount, memberId</t>
-  </si>
-  <si>
-    <t>USR_02_06</t>
-  </si>
-  <si>
-    <t>내 예매 내역 조회 화면</t>
-  </si>
-  <si>
-    <t>/reserve/list</t>
-  </si>
-  <si>
-    <t>memberId, pageNum, amount</t>
-  </si>
-  <si>
-    <t>/reserve/refund</t>
-  </si>
-  <si>
-    <t>reserveNo</t>
-  </si>
-  <si>
-    <t>USR_02_06_01</t>
-  </si>
-  <si>
-    <t>리뷰 작성 화면</t>
-  </si>
-  <si>
-    <t>/review/register</t>
-  </si>
-  <si>
-    <t>movieNo</t>
-  </si>
-  <si>
-    <t>reviewVO</t>
-  </si>
-  <si>
-    <t>USR_03</t>
-  </si>
-  <si>
-    <t>/reserve/register</t>
-  </si>
-  <si>
-    <t>ADM_03_01</t>
-  </si>
-  <si>
-    <t>상영시간표 등록 화면</t>
-  </si>
-  <si>
-    <t>/schedule/register</t>
-  </si>
-  <si>
-    <t>scheduleVO</t>
-  </si>
-  <si>
-    <t>USR_03_01</t>
-  </si>
-  <si>
-    <t>좌석/인원 수 선택 화면</t>
-  </si>
-  <si>
-    <t>/reserve/reserve</t>
-  </si>
-  <si>
-    <t>reserveVO</t>
-  </si>
-  <si>
-    <t>USR_04</t>
-  </si>
-  <si>
-    <t>ADM_03_02</t>
-  </si>
-  <si>
-    <t>신고 화면</t>
-  </si>
-  <si>
-    <t>/report/review/register</t>
-  </si>
-  <si>
-    <t>상영시간표 수정 화면</t>
-  </si>
-  <si>
-    <t>/schedule/modify</t>
-  </si>
-  <si>
-    <t>ReviewReportVO</t>
-  </si>
-  <si>
-    <t>/report/reply/register</t>
-  </si>
-  <si>
-    <t>replyReportVo</t>
-  </si>
-  <si>
-    <t>/report/comment/register</t>
-  </si>
-  <si>
-    <t>commentNo</t>
-  </si>
-  <si>
-    <t>USR_05_01</t>
-  </si>
-  <si>
-    <t>건의사항 등록 화면</t>
-  </si>
-  <si>
-    <t>/suggest/register</t>
-  </si>
-  <si>
-    <t>모든항목</t>
-  </si>
-  <si>
-    <t>USR_05_02</t>
-  </si>
-  <si>
-    <t>건의사항 수정 화면</t>
-  </si>
-  <si>
-    <t>/suggest/modify</t>
-  </si>
-  <si>
-    <t>USR_06_01</t>
-  </si>
-  <si>
-    <t>/reserve/get</t>
-  </si>
-  <si>
-    <t>USR_06_02</t>
-  </si>
-  <si>
-    <t>결제 완료 화면</t>
-  </si>
-  <si>
-    <t>/myGift/pay</t>
-  </si>
-  <si>
-    <t>ADM_01_01</t>
-  </si>
-  <si>
-    <t>회원 목록 조회 화면</t>
-  </si>
-  <si>
-    <t>/member/list</t>
-  </si>
-  <si>
-    <t>ADM_01_01_01</t>
-  </si>
-  <si>
-    <t>회원 상세보기 화면</t>
-  </si>
-  <si>
-    <t>/member/remove</t>
-  </si>
-  <si>
-    <t>ADM_01_02</t>
-  </si>
-  <si>
-    <t>리뷰 댓글 신고 조회 화면</t>
-  </si>
-  <si>
-    <t>/report/reply/list</t>
-  </si>
-  <si>
-    <t>ADM_01_02_01</t>
-  </si>
-  <si>
-    <t>/report/comment/get</t>
-  </si>
-  <si>
-    <t>commentReportNo,
-pageNum, amount</t>
-  </si>
-  <si>
-    <t>/report/reply/get</t>
-  </si>
-  <si>
-    <t>ReplyReportNo, pageNum, amount</t>
-  </si>
-  <si>
-    <t>ADM_01_03</t>
-  </si>
-  <si>
-    <t>한줄평 신고 조회 화면</t>
-  </si>
-  <si>
-    <t>/report/comment/list</t>
-  </si>
-  <si>
-    <t>commentNo, pageNum, amount</t>
-  </si>
-  <si>
-    <t>/report/comment/remove</t>
-  </si>
-  <si>
-    <t>ADM_01_04</t>
-  </si>
-  <si>
-    <t>리뷰 신고 조회 화면</t>
-  </si>
-  <si>
-    <t>/report/review/list</t>
-  </si>
-  <si>
-    <t>/report/review/remove</t>
-  </si>
-  <si>
-    <t>reviewNo,pageNum,amount</t>
-  </si>
-  <si>
-    <t>ADM_01_04_01</t>
-  </si>
-  <si>
-    <t>리뷰 신고글 상세보기 화면</t>
-  </si>
-  <si>
-    <t>/report/review/get</t>
-  </si>
-  <si>
-    <t>reviewReportNo, pageNum, amount</t>
-  </si>
-  <si>
-    <t>ADM_02_01</t>
-  </si>
-  <si>
-    <t>영화 등록 화면</t>
-  </si>
-  <si>
-    <t>/movie/register</t>
-  </si>
-  <si>
-    <t>모든항목(MovieVO)</t>
-  </si>
-  <si>
-    <t>ADM_02_02</t>
-  </si>
-  <si>
-    <t>영화 수정 화면</t>
-  </si>
-  <si>
-    <t>/movie/modify</t>
-  </si>
-  <si>
-    <t>movieNo, pageNum,
-amount, attachList</t>
-  </si>
-  <si>
-    <t>ADM_04_01</t>
-  </si>
-  <si>
-    <t>기프티콘 등록 화면</t>
-  </si>
-  <si>
-    <t>/gift/register</t>
-  </si>
-  <si>
-    <t>모든항목(GiftVO)</t>
-  </si>
-  <si>
-    <t>ADM_04_02</t>
-  </si>
-  <si>
-    <t>기프티콘 수정 화면</t>
-  </si>
-  <si>
-    <t>/gift/modify</t>
-  </si>
-  <si>
-    <t>ADM_05_01</t>
-  </si>
-  <si>
-    <t>공지사항 등록 화면</t>
-  </si>
-  <si>
-    <t>/notice/register</t>
-  </si>
-  <si>
-    <t>모든항목(NoticeVO)</t>
-  </si>
-  <si>
-    <t>ADM_05_02</t>
-  </si>
-  <si>
-    <t>공지사항 수정 화면</t>
-  </si>
-  <si>
-    <t>/notice/modify</t>
-  </si>
-  <si>
-    <t>ADM_06_01</t>
-  </si>
-  <si>
-    <t>습득물 등록 화면</t>
-  </si>
-  <si>
-    <t>/lost/register</t>
-  </si>
-  <si>
-    <t>ADM_06_02</t>
-  </si>
-  <si>
-    <t>습득물 수정 화면</t>
-  </si>
-  <si>
-    <t>/lost/modify</t>
-  </si>
-  <si>
-    <t>예매 (영화, 날짜,
-시간 선택) 화면</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>리뷰 댓글/한줄평
-신고글 상세보기 화면</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>lostNo, pageNum, amount,
 lostTitle, lostContent,
 keyword, type</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>pageNum, amount, lostNo,
 keyword, type</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>pageNum, amount, noticeNo,
-noticeTitle, noticeContent,
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>noticeNo, pageNum, amount, 
 keyword, type</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>pageNum, amount, noticeNo,
-keyword, type</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>giftNo, giftName, giftPrice,
-attachList, keyword</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+attachList</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>scheduleDate, screen</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>movieNo, pageNum,
+amount, attachList</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>reviewNo,pageNum,amount</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>reviewReportNo, pageNum, amount</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>commentNo, pageNum, amount</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>commentNo, commentReportNo,
+ pageNum, amount</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReplyReportNo, pageNum, amount</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>commentNo, commentReportNo,
+pageNum, amount</t>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>memberId, pageNum, amount,
 type, keyword</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">memberId, pageNum, amount,
 type, keyword        </t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>suggestNo, memberId, suggestTitle,
 suggestContent, pageNum,
 amount, keyword, type</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>suggestNo, pageNum, amount,
 keyword, type</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>myGiftNo, expireDate, extendChk, memberId</t>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>memberId, memberPw,
-memberEmail, memberPhone</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+memberPhoneFirst, memberPhoneSecond, 
+memberPhoneThird</t>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>pageNum, amount, reviewTitle,
 reviewContent, keyword, type</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>reviewNo, pageNum, amount,
 keyword, type</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>memberId
+, memberEmail, memberEmailSecond
+, memberPhoneFirst, memberPhoneSecond
+, memberPhoneThird</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>memberEmail, memberEmailSecond
+, memberPhoneFirst, memberPhoneSecond
+, memberPhoneThird</t>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>suggestVO, pageNum,
 amount, keyword, type</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>suggestNo, suggestPw, pageNum,
 amount, keyword, type</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>lostNo, pageNum, amount,
 keyword, type</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>reviewNo, pageNum ,amount,
-keyword, type</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>pageNum, amount, keyword, type</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>reviewNo, pageNum, amount, 
-keyword, type</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>movieNo, pageNum, amount,
-keyword, type</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>movieNo, pageNum, amount, 
-keyword, type</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>pageNum,amount,keyword,type</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>noticeNo, pageNum, amount, type, keyword</t>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>pageNum, amount, type, keyword</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>memberId, memberPw</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>리뷰 댓글/한줄평
+신고글 상세보기 화면</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>예매 (영화, 날짜,
+시간 선택) 화면</t>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -884,22 +942,12 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
     </font>
     <font>
       <sz val="11"/>
@@ -938,10 +986,27 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
@@ -952,13 +1017,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -971,14 +1030,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
@@ -1003,9 +1062,134 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
@@ -1041,15 +1225,6 @@
     </border>
     <border>
       <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -1059,120 +1234,6 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1196,9 +1257,7 @@
         <color rgb="FF000000"/>
       </right>
       <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1214,41 +1273,41 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1260,7 +1319,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1272,16 +1331,13 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1293,77 +1349,71 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1371,62 +1421,65 @@
     <xf numFmtId="0" fontId="10" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1642,15 +1695,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J998"/>
+  <dimension ref="A1:J1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22:I22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F75" sqref="F75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1659,23 +1712,23 @@
     <col min="4" max="4" width="25.25" customWidth="1"/>
     <col min="5" max="5" width="22.5" customWidth="1"/>
     <col min="6" max="6" width="17.375" customWidth="1"/>
-    <col min="7" max="7" width="37.125" customWidth="1"/>
+    <col min="7" max="7" width="41.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
+      <c r="A1" s="2"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="1"/>
+      <c r="A2" s="2"/>
       <c r="B2" s="5"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="1"/>
       <c r="E2" s="6"/>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
@@ -1683,20 +1736,20 @@
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="7"/>
       <c r="B3" s="56" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C3" s="56" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D3" s="60"/>
       <c r="E3" s="8" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H3" s="61"/>
       <c r="I3" s="62"/>
@@ -1705,13 +1758,13 @@
       <c r="A4" s="7"/>
       <c r="B4" s="57"/>
       <c r="C4" s="57"/>
-      <c r="D4" s="44"/>
+      <c r="D4" s="40"/>
       <c r="E4" s="8" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F4" s="11"/>
       <c r="G4" s="10" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H4" s="61"/>
       <c r="I4" s="62"/>
@@ -1720,13 +1773,13 @@
       <c r="A5" s="7"/>
       <c r="B5" s="58"/>
       <c r="C5" s="58"/>
-      <c r="D5" s="45"/>
+      <c r="D5" s="41"/>
       <c r="E5" s="8" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F5" s="11"/>
       <c r="G5" s="10" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="H5" s="61"/>
       <c r="I5" s="62"/>
@@ -1734,7 +1787,7 @@
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="12"/>
       <c r="B6" s="12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C6" s="13"/>
       <c r="D6" s="13"/>
@@ -1751,2072 +1804,2092 @@
     <row r="8" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A8" s="18"/>
       <c r="B8" s="19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C8" s="63" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="41"/>
+        <v>13</v>
+      </c>
+      <c r="D8" s="42"/>
       <c r="E8" s="14"/>
-      <c r="F8" s="20"/>
+      <c r="F8" s="24"/>
       <c r="G8" s="4"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="21"/>
-      <c r="B9" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="46" t="s">
-        <v>24</v>
+      <c r="A9" s="20"/>
+      <c r="B9" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="49" t="s">
+        <v>16</v>
       </c>
       <c r="E9" s="14"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="21"/>
-      <c r="B10" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="42"/>
-      <c r="E10" s="23"/>
+      <c r="A10" s="20"/>
+      <c r="B10" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="43"/>
+      <c r="E10" s="22"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="21"/>
-      <c r="B11" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" s="43"/>
+      <c r="A11" s="20"/>
+      <c r="B11" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="46"/>
       <c r="E11" s="14"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="13"/>
-      <c r="B12" s="24"/>
+      <c r="B12" s="23"/>
       <c r="C12" s="13"/>
       <c r="D12" s="13"/>
       <c r="E12" s="14"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="25"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="24"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="13"/>
-      <c r="B13" s="26"/>
+      <c r="B13" s="25"/>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="28"/>
-      <c r="G13" s="29"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="28"/>
     </row>
     <row r="14" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A14" s="18"/>
       <c r="B14" s="19" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="E14" s="30" t="s">
-        <v>14</v>
+        <v>21</v>
+      </c>
+      <c r="D14" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" s="29" t="s">
+        <v>23</v>
       </c>
       <c r="F14" s="19" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="G14" s="19" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="H14" s="63" t="s">
-        <v>30</v>
-      </c>
-      <c r="I14" s="41"/>
+        <v>26</v>
+      </c>
+      <c r="I14" s="42"/>
     </row>
     <row r="15" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A15" s="18"/>
       <c r="B15" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="D15" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="E15" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="F15" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="G15" s="33"/>
-      <c r="H15" s="48"/>
-      <c r="I15" s="41"/>
-      <c r="J15" s="34"/>
+        <v>14</v>
+      </c>
+      <c r="C15" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="F15" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="32"/>
+      <c r="H15" s="44"/>
+      <c r="I15" s="42"/>
+      <c r="J15" s="33"/>
     </row>
     <row r="16" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A16" s="18"/>
-      <c r="B16" s="42"/>
-      <c r="C16" s="46" t="s">
+      <c r="B16" s="43"/>
+      <c r="C16" s="49" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="49" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" s="51" t="s">
+        <v>33</v>
+      </c>
+      <c r="F16" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="G16" s="34"/>
+      <c r="H16" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="D16" s="46" t="s">
-        <v>35</v>
-      </c>
-      <c r="E16" s="55" t="s">
-        <v>36</v>
-      </c>
-      <c r="F16" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="G16" s="35"/>
-      <c r="H16" s="48" t="s">
-        <v>37</v>
-      </c>
-      <c r="I16" s="41"/>
-      <c r="J16" s="34"/>
+      <c r="I16" s="42"/>
+      <c r="J16" s="33"/>
     </row>
     <row r="17" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A17" s="18"/>
-      <c r="B17" s="42"/>
-      <c r="C17" s="43"/>
-      <c r="D17" s="43"/>
-      <c r="E17" s="43"/>
-      <c r="F17" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="G17" s="35" t="s">
-        <v>39</v>
-      </c>
-      <c r="H17" s="48"/>
-      <c r="I17" s="41"/>
-      <c r="J17" s="34"/>
+      <c r="B17" s="43"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="46"/>
+      <c r="E17" s="46"/>
+      <c r="F17" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="G17" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="H17" s="44"/>
+      <c r="I17" s="42"/>
+      <c r="J17" s="33"/>
     </row>
     <row r="18" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A18" s="18"/>
-      <c r="B18" s="42"/>
-      <c r="C18" s="51" t="s">
-        <v>40</v>
-      </c>
-      <c r="D18" s="51" t="s">
-        <v>41</v>
-      </c>
-      <c r="E18" s="53" t="s">
-        <v>42</v>
-      </c>
-      <c r="F18" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="G18" s="35"/>
-      <c r="H18" s="48"/>
-      <c r="I18" s="41"/>
-      <c r="J18" s="34"/>
+      <c r="B18" s="43"/>
+      <c r="C18" s="48" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" s="48" t="s">
+        <v>38</v>
+      </c>
+      <c r="E18" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="F18" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="34"/>
+      <c r="H18" s="44"/>
+      <c r="I18" s="42"/>
+      <c r="J18" s="33"/>
     </row>
     <row r="19" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A19" s="18"/>
-      <c r="B19" s="42"/>
-      <c r="C19" s="43"/>
-      <c r="D19" s="43"/>
-      <c r="E19" s="43"/>
-      <c r="F19" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="G19" s="70" t="s">
-        <v>261</v>
-      </c>
-      <c r="H19" s="48"/>
-      <c r="I19" s="41"/>
-      <c r="J19" s="34"/>
+      <c r="B19" s="43"/>
+      <c r="C19" s="46"/>
+      <c r="D19" s="46"/>
+      <c r="E19" s="46"/>
+      <c r="F19" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="G19" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="H19" s="44"/>
+      <c r="I19" s="42"/>
+      <c r="J19" s="33"/>
     </row>
     <row r="20" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A20" s="18"/>
-      <c r="B20" s="42"/>
-      <c r="C20" s="36" t="s">
+      <c r="B20" s="43"/>
+      <c r="C20" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="E20" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="D20" s="36" t="s">
+      <c r="F20" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="G20" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="E20" s="37" t="s">
+      <c r="H20" s="44"/>
+      <c r="I20" s="42"/>
+      <c r="J20" s="33"/>
+    </row>
+    <row r="21" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A21" s="18"/>
+      <c r="B21" s="43"/>
+      <c r="C21" s="49" t="s">
         <v>45</v>
       </c>
-      <c r="F20" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="G20" s="69" t="s">
-        <v>260</v>
-      </c>
-      <c r="H20" s="48"/>
-      <c r="I20" s="41"/>
-      <c r="J20" s="34"/>
-    </row>
-    <row r="21" spans="1:10" ht="30" x14ac:dyDescent="0.2">
-      <c r="A21" s="18"/>
-      <c r="B21" s="42"/>
-      <c r="C21" s="46" t="s">
+      <c r="D21" s="49" t="s">
         <v>46</v>
       </c>
-      <c r="D21" s="46" t="s">
+      <c r="E21" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="E21" s="37" t="s">
+      <c r="F21" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="G21" s="65" t="s">
+        <v>238</v>
+      </c>
+      <c r="H21" s="44"/>
+      <c r="I21" s="42"/>
+      <c r="J21" s="33"/>
+    </row>
+    <row r="22" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A22" s="18"/>
+      <c r="B22" s="43"/>
+      <c r="C22" s="43"/>
+      <c r="D22" s="43"/>
+      <c r="E22" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="F21" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="G21" s="68" t="s">
-        <v>259</v>
-      </c>
-      <c r="H21" s="48"/>
-      <c r="I21" s="41"/>
-      <c r="J21" s="34"/>
-    </row>
-    <row r="22" spans="1:10" ht="30" x14ac:dyDescent="0.2">
-      <c r="A22" s="18"/>
-      <c r="B22" s="42"/>
-      <c r="C22" s="42"/>
-      <c r="D22" s="42"/>
-      <c r="E22" s="37" t="s">
-        <v>49</v>
-      </c>
-      <c r="F22" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="G22" s="68" t="s">
-        <v>258</v>
-      </c>
-      <c r="H22" s="48"/>
-      <c r="I22" s="41"/>
-      <c r="J22" s="34"/>
+      <c r="F22" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="G22" s="65" t="s">
+        <v>239</v>
+      </c>
+      <c r="H22" s="44"/>
+      <c r="I22" s="42"/>
+      <c r="J22" s="33"/>
     </row>
     <row r="23" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A23" s="18"/>
-      <c r="B23" s="42"/>
-      <c r="C23" s="42"/>
-      <c r="D23" s="42"/>
-      <c r="E23" s="37" t="s">
+      <c r="B23" s="43"/>
+      <c r="C23" s="43"/>
+      <c r="D23" s="43"/>
+      <c r="E23" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="F23" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="G23" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="F23" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="G23" s="37" t="s">
-        <v>51</v>
-      </c>
-      <c r="H23" s="48"/>
-      <c r="I23" s="41"/>
-      <c r="J23" s="34"/>
+      <c r="H23" s="44"/>
+      <c r="I23" s="42"/>
+      <c r="J23" s="33"/>
     </row>
     <row r="24" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="18"/>
-      <c r="B24" s="42"/>
-      <c r="C24" s="42"/>
-      <c r="D24" s="42"/>
-      <c r="E24" s="47" t="s">
+      <c r="B24" s="43"/>
+      <c r="C24" s="43"/>
+      <c r="D24" s="43"/>
+      <c r="E24" s="53" t="s">
+        <v>51</v>
+      </c>
+      <c r="F24" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="F24" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="G24" s="32" t="s">
-        <v>53</v>
-      </c>
-      <c r="H24" s="48"/>
-      <c r="I24" s="41"/>
-      <c r="J24" s="34"/>
+      <c r="H24" s="44"/>
+      <c r="I24" s="42"/>
+      <c r="J24" s="33"/>
     </row>
     <row r="25" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A25" s="18"/>
-      <c r="B25" s="42"/>
-      <c r="C25" s="42"/>
-      <c r="D25" s="42"/>
-      <c r="E25" s="42"/>
-      <c r="F25" s="33" t="s">
-        <v>54</v>
-      </c>
-      <c r="G25" s="33" t="s">
-        <v>55</v>
-      </c>
-      <c r="H25" s="48"/>
-      <c r="I25" s="41"/>
-      <c r="J25" s="34"/>
+      <c r="B25" s="43"/>
+      <c r="C25" s="43"/>
+      <c r="D25" s="43"/>
+      <c r="E25" s="43"/>
+      <c r="F25" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="G25" s="67" t="s">
+        <v>242</v>
+      </c>
+      <c r="H25" s="44"/>
+      <c r="I25" s="42"/>
+      <c r="J25" s="33"/>
     </row>
     <row r="26" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A26" s="18"/>
-      <c r="B26" s="42"/>
-      <c r="C26" s="43"/>
-      <c r="D26" s="43"/>
-      <c r="E26" s="43"/>
-      <c r="F26" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="G26" s="33" t="s">
-        <v>57</v>
-      </c>
-      <c r="H26" s="48"/>
-      <c r="I26" s="41"/>
-      <c r="J26" s="34"/>
+      <c r="B26" s="43"/>
+      <c r="C26" s="46"/>
+      <c r="D26" s="46"/>
+      <c r="E26" s="46"/>
+      <c r="F26" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="G26" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="H26" s="44"/>
+      <c r="I26" s="42"/>
+      <c r="J26" s="33"/>
     </row>
     <row r="27" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A27" s="18"/>
-      <c r="B27" s="42"/>
-      <c r="C27" s="51" t="s">
-        <v>17</v>
-      </c>
-      <c r="D27" s="51" t="s">
-        <v>18</v>
-      </c>
-      <c r="E27" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="F27" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="G27" s="33" t="s">
+      <c r="B27" s="43"/>
+      <c r="C27" s="48" t="s">
+        <v>56</v>
+      </c>
+      <c r="D27" s="48" t="s">
+        <v>57</v>
+      </c>
+      <c r="E27" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="H27" s="48"/>
-      <c r="I27" s="41"/>
-      <c r="J27" s="34"/>
+      <c r="F27" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="H27" s="44"/>
+      <c r="I27" s="42"/>
+      <c r="J27" s="33"/>
     </row>
     <row r="28" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A28" s="18"/>
-      <c r="B28" s="42"/>
-      <c r="C28" s="43"/>
-      <c r="D28" s="43"/>
-      <c r="E28" s="37" t="s">
+      <c r="B28" s="43"/>
+      <c r="C28" s="46"/>
+      <c r="D28" s="46"/>
+      <c r="E28" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="F28" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="G28" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="F28" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="G28" s="33" t="s">
-        <v>58</v>
-      </c>
-      <c r="H28" s="48"/>
-      <c r="I28" s="41"/>
-      <c r="J28" s="34"/>
+      <c r="H28" s="44"/>
+      <c r="I28" s="42"/>
+      <c r="J28" s="33"/>
     </row>
     <row r="29" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A29" s="18"/>
-      <c r="B29" s="42"/>
-      <c r="C29" s="36" t="s">
-        <v>60</v>
-      </c>
-      <c r="D29" s="36" t="s">
+      <c r="B29" s="43"/>
+      <c r="C29" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="E29" s="37" t="s">
+      <c r="D29" s="35" t="s">
         <v>62</v>
       </c>
-      <c r="F29" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="G29" s="67" t="s">
-        <v>256</v>
-      </c>
-      <c r="H29" s="48"/>
-      <c r="I29" s="41"/>
-      <c r="J29" s="34"/>
-    </row>
-    <row r="30" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+      <c r="E29" s="36" t="s">
+        <v>63</v>
+      </c>
+      <c r="F29" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="G29" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="H29" s="44"/>
+      <c r="I29" s="42"/>
+      <c r="J29" s="33"/>
+    </row>
+    <row r="30" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A30" s="18"/>
-      <c r="B30" s="42"/>
-      <c r="C30" s="46" t="s">
-        <v>63</v>
-      </c>
-      <c r="D30" s="46" t="s">
-        <v>64</v>
-      </c>
-      <c r="E30" s="37" t="s">
+      <c r="B30" s="43"/>
+      <c r="C30" s="49" t="s">
         <v>65</v>
       </c>
-      <c r="F30" s="33" t="s">
-        <v>20</v>
+      <c r="D30" s="49" t="s">
+        <v>66</v>
+      </c>
+      <c r="E30" s="36" t="s">
+        <v>67</v>
+      </c>
+      <c r="F30" s="34" t="s">
+        <v>30</v>
       </c>
       <c r="G30" s="66" t="s">
-        <v>255</v>
-      </c>
-      <c r="H30" s="48"/>
-      <c r="I30" s="41"/>
-      <c r="J30" s="34"/>
-    </row>
-    <row r="31" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+        <v>241</v>
+      </c>
+      <c r="H30" s="44"/>
+      <c r="I30" s="42"/>
+      <c r="J30" s="33"/>
+    </row>
+    <row r="31" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A31" s="18"/>
-      <c r="B31" s="42"/>
-      <c r="C31" s="42"/>
-      <c r="D31" s="42"/>
-      <c r="E31" s="37" t="s">
-        <v>66</v>
-      </c>
-      <c r="F31" s="33" t="s">
-        <v>38</v>
+      <c r="B31" s="43"/>
+      <c r="C31" s="43"/>
+      <c r="D31" s="43"/>
+      <c r="E31" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="F31" s="34" t="s">
+        <v>35</v>
       </c>
       <c r="G31" s="66" t="s">
-        <v>257</v>
-      </c>
-      <c r="H31" s="48"/>
-      <c r="I31" s="41"/>
-      <c r="J31" s="34"/>
+        <v>240</v>
+      </c>
+      <c r="H31" s="44"/>
+      <c r="I31" s="42"/>
+      <c r="J31" s="33"/>
     </row>
     <row r="32" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A32" s="18"/>
-      <c r="B32" s="42"/>
-      <c r="C32" s="42"/>
-      <c r="D32" s="42"/>
-      <c r="E32" s="37" t="s">
-        <v>67</v>
-      </c>
-      <c r="F32" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="G32" s="33" t="s">
-        <v>68</v>
-      </c>
-      <c r="H32" s="48"/>
-      <c r="I32" s="41"/>
-      <c r="J32" s="34"/>
+      <c r="B32" s="43"/>
+      <c r="C32" s="43"/>
+      <c r="D32" s="43"/>
+      <c r="E32" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="F32" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="G32" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="H32" s="44"/>
+      <c r="I32" s="42"/>
+      <c r="J32" s="33"/>
     </row>
     <row r="33" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A33" s="18"/>
-      <c r="B33" s="42"/>
-      <c r="C33" s="42"/>
-      <c r="D33" s="42"/>
-      <c r="E33" s="53" t="s">
-        <v>69</v>
-      </c>
-      <c r="F33" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="G33" s="33" t="s">
-        <v>70</v>
-      </c>
-      <c r="H33" s="48"/>
-      <c r="I33" s="41"/>
-      <c r="J33" s="34"/>
+      <c r="B33" s="43"/>
+      <c r="C33" s="43"/>
+      <c r="D33" s="43"/>
+      <c r="E33" s="51" t="s">
+        <v>72</v>
+      </c>
+      <c r="F33" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="G33" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="H33" s="44"/>
+      <c r="I33" s="42"/>
+      <c r="J33" s="33"/>
     </row>
     <row r="34" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A34" s="18"/>
-      <c r="B34" s="42"/>
-      <c r="C34" s="42"/>
-      <c r="D34" s="42"/>
-      <c r="E34" s="43"/>
-      <c r="F34" s="33" t="s">
-        <v>54</v>
-      </c>
-      <c r="G34" s="33" t="s">
-        <v>71</v>
-      </c>
-      <c r="H34" s="48"/>
-      <c r="I34" s="41"/>
-      <c r="J34" s="34"/>
+      <c r="B34" s="43"/>
+      <c r="C34" s="43"/>
+      <c r="D34" s="43"/>
+      <c r="E34" s="46"/>
+      <c r="F34" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="G34" s="34" t="s">
+        <v>74</v>
+      </c>
+      <c r="H34" s="44"/>
+      <c r="I34" s="42"/>
+      <c r="J34" s="33"/>
     </row>
     <row r="35" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A35" s="18"/>
-      <c r="B35" s="42"/>
-      <c r="C35" s="43"/>
-      <c r="D35" s="43"/>
-      <c r="E35" s="37" t="s">
-        <v>69</v>
-      </c>
-      <c r="F35" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="G35" s="33" t="s">
-        <v>70</v>
-      </c>
-      <c r="H35" s="48"/>
-      <c r="I35" s="41"/>
-      <c r="J35" s="34"/>
+      <c r="B35" s="43"/>
+      <c r="C35" s="46"/>
+      <c r="D35" s="46"/>
+      <c r="E35" s="36" t="s">
+        <v>72</v>
+      </c>
+      <c r="F35" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="G35" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="H35" s="44"/>
+      <c r="I35" s="42"/>
+      <c r="J35" s="33"/>
     </row>
     <row r="36" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A36" s="18"/>
-      <c r="B36" s="42"/>
-      <c r="C36" s="38" t="s">
-        <v>72</v>
-      </c>
-      <c r="D36" s="38" t="s">
-        <v>73</v>
-      </c>
-      <c r="E36" s="37" t="s">
-        <v>74</v>
-      </c>
-      <c r="F36" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="G36" s="33" t="s">
+      <c r="B36" s="43"/>
+      <c r="C36" s="37" t="s">
         <v>75</v>
       </c>
-      <c r="H36" s="48"/>
-      <c r="I36" s="41"/>
-      <c r="J36" s="34"/>
+      <c r="D36" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="E36" s="36" t="s">
+        <v>77</v>
+      </c>
+      <c r="F36" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="G36" s="34"/>
+      <c r="H36" s="44"/>
+      <c r="I36" s="42"/>
+      <c r="J36" s="33"/>
     </row>
     <row r="37" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A37" s="18"/>
-      <c r="B37" s="42"/>
-      <c r="C37" s="51" t="s">
-        <v>76</v>
-      </c>
-      <c r="D37" s="51" t="s">
-        <v>77</v>
-      </c>
-      <c r="E37" s="37" t="s">
+      <c r="B37" s="43"/>
+      <c r="C37" s="48" t="s">
         <v>78</v>
       </c>
-      <c r="F37" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="G37" s="33" t="s">
-        <v>79</v>
-      </c>
-      <c r="H37" s="48"/>
-      <c r="I37" s="41"/>
-      <c r="J37" s="34"/>
+      <c r="D37" s="48" t="s">
+        <v>80</v>
+      </c>
+      <c r="E37" s="36" t="s">
+        <v>81</v>
+      </c>
+      <c r="F37" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="G37" s="34" t="s">
+        <v>82</v>
+      </c>
+      <c r="H37" s="44"/>
+      <c r="I37" s="42"/>
+      <c r="J37" s="33"/>
     </row>
     <row r="38" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A38" s="18"/>
-      <c r="B38" s="42"/>
-      <c r="C38" s="43"/>
-      <c r="D38" s="43"/>
-      <c r="E38" s="37" t="s">
-        <v>80</v>
-      </c>
-      <c r="F38" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="G38" s="33" t="s">
-        <v>79</v>
-      </c>
-      <c r="H38" s="48"/>
-      <c r="I38" s="41"/>
-      <c r="J38" s="34"/>
+      <c r="B38" s="43"/>
+      <c r="C38" s="46"/>
+      <c r="D38" s="46"/>
+      <c r="E38" s="36" t="s">
+        <v>83</v>
+      </c>
+      <c r="F38" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="G38" s="34" t="s">
+        <v>84</v>
+      </c>
+      <c r="H38" s="44"/>
+      <c r="I38" s="42"/>
+      <c r="J38" s="33"/>
     </row>
     <row r="39" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A39" s="18"/>
-      <c r="B39" s="42"/>
-      <c r="C39" s="36" t="s">
-        <v>81</v>
-      </c>
-      <c r="D39" s="36" t="s">
-        <v>82</v>
-      </c>
-      <c r="E39" s="37" t="s">
-        <v>83</v>
-      </c>
-      <c r="F39" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="G39" s="33" t="s">
-        <v>84</v>
-      </c>
-      <c r="H39" s="48"/>
-      <c r="I39" s="41"/>
-      <c r="J39" s="34"/>
+      <c r="B39" s="43"/>
+      <c r="C39" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="D39" s="35" t="s">
+        <v>86</v>
+      </c>
+      <c r="E39" s="36" t="s">
+        <v>87</v>
+      </c>
+      <c r="F39" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="G39" s="67" t="s">
+        <v>270</v>
+      </c>
+      <c r="H39" s="44"/>
+      <c r="I39" s="42"/>
+      <c r="J39" s="33"/>
     </row>
     <row r="40" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A40" s="18"/>
-      <c r="B40" s="42"/>
-      <c r="C40" s="46" t="s">
-        <v>85</v>
-      </c>
-      <c r="D40" s="46" t="s">
-        <v>86</v>
-      </c>
-      <c r="E40" s="37" t="s">
-        <v>87</v>
-      </c>
-      <c r="F40" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="G40" s="33" t="s">
+      <c r="B40" s="43"/>
+      <c r="C40" s="49" t="s">
         <v>88</v>
       </c>
-      <c r="H40" s="48"/>
-      <c r="I40" s="41"/>
-      <c r="J40" s="34"/>
+      <c r="D40" s="49" t="s">
+        <v>89</v>
+      </c>
+      <c r="E40" s="36" t="s">
+        <v>90</v>
+      </c>
+      <c r="F40" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="G40" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="H40" s="44"/>
+      <c r="I40" s="42"/>
+      <c r="J40" s="33"/>
     </row>
     <row r="41" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A41" s="18"/>
-      <c r="B41" s="42"/>
-      <c r="C41" s="43"/>
-      <c r="D41" s="43"/>
-      <c r="E41" s="37" t="s">
-        <v>89</v>
-      </c>
-      <c r="F41" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="G41" s="33" t="s">
-        <v>90</v>
-      </c>
-      <c r="H41" s="48"/>
-      <c r="I41" s="41"/>
-      <c r="J41" s="34"/>
+      <c r="B41" s="43"/>
+      <c r="C41" s="46"/>
+      <c r="D41" s="46"/>
+      <c r="E41" s="36" t="s">
+        <v>92</v>
+      </c>
+      <c r="F41" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="G41" s="67" t="s">
+        <v>269</v>
+      </c>
+      <c r="H41" s="44"/>
+      <c r="I41" s="42"/>
+      <c r="J41" s="33"/>
     </row>
     <row r="42" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A42" s="18"/>
-      <c r="B42" s="42"/>
-      <c r="C42" s="38" t="s">
-        <v>91</v>
-      </c>
-      <c r="D42" s="38" t="s">
-        <v>92</v>
-      </c>
-      <c r="E42" s="37" t="s">
+      <c r="B42" s="43"/>
+      <c r="C42" s="37" t="s">
         <v>93</v>
       </c>
-      <c r="F42" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="G42" s="33" t="s">
+      <c r="D42" s="37" t="s">
         <v>94</v>
       </c>
-      <c r="H42" s="48"/>
-      <c r="I42" s="41"/>
-      <c r="J42" s="34"/>
-    </row>
-    <row r="43" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+      <c r="E42" s="36" t="s">
+        <v>95</v>
+      </c>
+      <c r="F42" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="G42" s="67" t="s">
+        <v>268</v>
+      </c>
+      <c r="H42" s="44"/>
+      <c r="I42" s="42"/>
+      <c r="J42" s="33"/>
+    </row>
+    <row r="43" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A43" s="18"/>
-      <c r="B43" s="42"/>
-      <c r="C43" s="51" t="s">
-        <v>95</v>
-      </c>
-      <c r="D43" s="51" t="s">
+      <c r="B43" s="43"/>
+      <c r="C43" s="48" t="s">
         <v>96</v>
       </c>
-      <c r="E43" s="37" t="s">
+      <c r="D43" s="48" t="s">
         <v>97</v>
       </c>
-      <c r="F43" s="33" t="s">
-        <v>20</v>
+      <c r="E43" s="36" t="s">
+        <v>98</v>
+      </c>
+      <c r="F43" s="34" t="s">
+        <v>30</v>
       </c>
       <c r="G43" s="66" t="s">
-        <v>254</v>
-      </c>
-      <c r="H43" s="48"/>
-      <c r="I43" s="41"/>
-      <c r="J43" s="34"/>
-    </row>
-    <row r="44" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+        <v>267</v>
+      </c>
+      <c r="H43" s="44"/>
+      <c r="I43" s="42"/>
+      <c r="J43" s="33"/>
+    </row>
+    <row r="44" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A44" s="18"/>
-      <c r="B44" s="42"/>
-      <c r="C44" s="43"/>
-      <c r="D44" s="43"/>
-      <c r="E44" s="37" t="s">
-        <v>98</v>
-      </c>
-      <c r="F44" s="33" t="s">
-        <v>38</v>
+      <c r="B44" s="43"/>
+      <c r="C44" s="46"/>
+      <c r="D44" s="46"/>
+      <c r="E44" s="36" t="s">
+        <v>99</v>
+      </c>
+      <c r="F44" s="34" t="s">
+        <v>35</v>
       </c>
       <c r="G44" s="66" t="s">
-        <v>254</v>
-      </c>
-      <c r="H44" s="48"/>
-      <c r="I44" s="41"/>
-      <c r="J44" s="34"/>
-    </row>
-    <row r="45" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+        <v>267</v>
+      </c>
+      <c r="H44" s="44"/>
+      <c r="I44" s="42"/>
+      <c r="J44" s="33"/>
+    </row>
+    <row r="45" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A45" s="18"/>
-      <c r="B45" s="42"/>
-      <c r="C45" s="36" t="s">
-        <v>99</v>
-      </c>
-      <c r="D45" s="36" t="s">
+      <c r="B45" s="43"/>
+      <c r="C45" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="E45" s="37" t="s">
+      <c r="D45" s="35" t="s">
         <v>101</v>
       </c>
-      <c r="F45" s="33" t="s">
-        <v>20</v>
+      <c r="E45" s="36" t="s">
+        <v>102</v>
+      </c>
+      <c r="F45" s="34" t="s">
+        <v>30</v>
       </c>
       <c r="G45" s="66" t="s">
-        <v>253</v>
-      </c>
-      <c r="H45" s="48"/>
-      <c r="I45" s="41"/>
-      <c r="J45" s="34"/>
-    </row>
-    <row r="46" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+        <v>266</v>
+      </c>
+      <c r="H45" s="44"/>
+      <c r="I45" s="42"/>
+      <c r="J45" s="33"/>
+    </row>
+    <row r="46" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A46" s="18"/>
-      <c r="B46" s="42"/>
-      <c r="C46" s="46" t="s">
-        <v>102</v>
-      </c>
-      <c r="D46" s="46" t="s">
+      <c r="B46" s="43"/>
+      <c r="C46" s="49" t="s">
         <v>103</v>
       </c>
-      <c r="E46" s="37" t="s">
+      <c r="D46" s="49" t="s">
         <v>104</v>
       </c>
-      <c r="F46" s="33" t="s">
-        <v>20</v>
+      <c r="E46" s="36" t="s">
+        <v>105</v>
+      </c>
+      <c r="F46" s="34" t="s">
+        <v>30</v>
       </c>
       <c r="G46" s="66" t="s">
-        <v>252</v>
-      </c>
-      <c r="H46" s="48"/>
-      <c r="I46" s="41"/>
-      <c r="J46" s="34"/>
-    </row>
-    <row r="47" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+        <v>265</v>
+      </c>
+      <c r="H46" s="44"/>
+      <c r="I46" s="42"/>
+      <c r="J46" s="33"/>
+    </row>
+    <row r="47" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A47" s="18"/>
-      <c r="B47" s="43"/>
-      <c r="C47" s="43"/>
-      <c r="D47" s="43"/>
-      <c r="E47" s="37" t="s">
-        <v>105</v>
-      </c>
-      <c r="F47" s="33" t="s">
-        <v>38</v>
+      <c r="B47" s="46"/>
+      <c r="C47" s="46"/>
+      <c r="D47" s="46"/>
+      <c r="E47" s="36" t="s">
+        <v>106</v>
+      </c>
+      <c r="F47" s="34" t="s">
+        <v>35</v>
       </c>
       <c r="G47" s="66" t="s">
-        <v>248</v>
-      </c>
-      <c r="H47" s="48"/>
-      <c r="I47" s="41"/>
-      <c r="J47" s="34"/>
+        <v>258</v>
+      </c>
+      <c r="H47" s="44"/>
+      <c r="I47" s="42"/>
+      <c r="J47" s="33"/>
     </row>
     <row r="48" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A48" s="18"/>
       <c r="B48" s="59" t="s">
-        <v>25</v>
-      </c>
-      <c r="C48" s="52" t="s">
-        <v>106</v>
-      </c>
-      <c r="D48" s="52" t="s">
+        <v>7</v>
+      </c>
+      <c r="C48" s="50" t="s">
         <v>107</v>
       </c>
-      <c r="E48" s="53" t="s">
+      <c r="D48" s="50" t="s">
         <v>108</v>
       </c>
-      <c r="F48" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="G48" s="33"/>
-      <c r="H48" s="48"/>
-      <c r="I48" s="41"/>
-      <c r="J48" s="34"/>
-    </row>
-    <row r="49" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="E48" s="51" t="s">
+        <v>109</v>
+      </c>
+      <c r="F48" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="G48" s="34"/>
+      <c r="H48" s="44"/>
+      <c r="I48" s="42"/>
+      <c r="J48" s="33"/>
+    </row>
+    <row r="49" spans="1:10" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A49" s="18"/>
-      <c r="B49" s="42"/>
-      <c r="C49" s="43"/>
-      <c r="D49" s="43"/>
-      <c r="E49" s="43"/>
-      <c r="F49" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="G49" s="33" t="s">
-        <v>109</v>
-      </c>
-      <c r="H49" s="48"/>
-      <c r="I49" s="41"/>
-      <c r="J49" s="34"/>
+      <c r="B49" s="43"/>
+      <c r="C49" s="46"/>
+      <c r="D49" s="46"/>
+      <c r="E49" s="46"/>
+      <c r="F49" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="G49" s="66" t="s">
+        <v>264</v>
+      </c>
+      <c r="H49" s="44"/>
+      <c r="I49" s="42"/>
+      <c r="J49" s="33"/>
     </row>
     <row r="50" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A50" s="18"/>
-      <c r="B50" s="42"/>
-      <c r="C50" s="49" t="s">
+      <c r="B50" s="43"/>
+      <c r="C50" s="45" t="s">
         <v>110</v>
       </c>
-      <c r="D50" s="49" t="s">
+      <c r="D50" s="45" t="s">
         <v>111</v>
       </c>
-      <c r="E50" s="53" t="s">
+      <c r="E50" s="51" t="s">
         <v>112</v>
       </c>
-      <c r="F50" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="G50" s="33"/>
-      <c r="H50" s="48"/>
-      <c r="I50" s="41"/>
-      <c r="J50" s="34"/>
-    </row>
-    <row r="51" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="F50" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="G50" s="34"/>
+      <c r="H50" s="44"/>
+      <c r="I50" s="42"/>
+      <c r="J50" s="33"/>
+    </row>
+    <row r="51" spans="1:10" ht="57" x14ac:dyDescent="0.2">
       <c r="A51" s="18"/>
-      <c r="B51" s="42"/>
-      <c r="C51" s="43"/>
-      <c r="D51" s="43"/>
-      <c r="E51" s="43"/>
-      <c r="F51" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="G51" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="H51" s="48"/>
-      <c r="I51" s="41"/>
-      <c r="J51" s="34"/>
-    </row>
-    <row r="52" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+      <c r="B51" s="43"/>
+      <c r="C51" s="46"/>
+      <c r="D51" s="46"/>
+      <c r="E51" s="46"/>
+      <c r="F51" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="G51" s="66" t="s">
+        <v>263</v>
+      </c>
+      <c r="H51" s="44"/>
+      <c r="I51" s="42"/>
+      <c r="J51" s="33"/>
+    </row>
+    <row r="52" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A52" s="18"/>
-      <c r="B52" s="42"/>
-      <c r="C52" s="50" t="s">
+      <c r="B52" s="43"/>
+      <c r="C52" s="47" t="s">
         <v>113</v>
       </c>
-      <c r="D52" s="50" t="s">
+      <c r="D52" s="47" t="s">
         <v>114</v>
       </c>
-      <c r="E52" s="53" t="s">
+      <c r="E52" s="51" t="s">
         <v>115</v>
       </c>
-      <c r="F52" s="33" t="s">
-        <v>20</v>
+      <c r="F52" s="34" t="s">
+        <v>30</v>
       </c>
       <c r="G52" s="66" t="s">
-        <v>251</v>
-      </c>
-      <c r="H52" s="48"/>
-      <c r="I52" s="41"/>
-      <c r="J52" s="34"/>
-    </row>
-    <row r="53" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+        <v>262</v>
+      </c>
+      <c r="H52" s="44"/>
+      <c r="I52" s="42"/>
+      <c r="J52" s="33"/>
+    </row>
+    <row r="53" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A53" s="18"/>
-      <c r="B53" s="42"/>
-      <c r="C53" s="43"/>
-      <c r="D53" s="43"/>
-      <c r="E53" s="43"/>
-      <c r="F53" s="33" t="s">
-        <v>38</v>
+      <c r="B53" s="43"/>
+      <c r="C53" s="46"/>
+      <c r="D53" s="46"/>
+      <c r="E53" s="46"/>
+      <c r="F53" s="34" t="s">
+        <v>35</v>
       </c>
       <c r="G53" s="66" t="s">
-        <v>250</v>
-      </c>
-      <c r="H53" s="48"/>
-      <c r="I53" s="41"/>
-      <c r="J53" s="34"/>
+        <v>261</v>
+      </c>
+      <c r="H53" s="44"/>
+      <c r="I53" s="42"/>
+      <c r="J53" s="33"/>
     </row>
     <row r="54" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A54" s="18"/>
-      <c r="B54" s="42"/>
-      <c r="C54" s="31" t="s">
-        <v>116</v>
-      </c>
-      <c r="D54" s="31" t="s">
+      <c r="B54" s="43"/>
+      <c r="C54" s="30" t="s">
         <v>117</v>
       </c>
-      <c r="E54" s="37" t="s">
+      <c r="D54" s="30" t="s">
         <v>118</v>
       </c>
-      <c r="F54" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="G54" s="35" t="s">
+      <c r="E54" s="36" t="s">
         <v>119</v>
       </c>
-      <c r="H54" s="48"/>
-      <c r="I54" s="41"/>
-      <c r="J54" s="34"/>
+      <c r="F54" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="G54" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="H54" s="44"/>
+      <c r="I54" s="42"/>
+      <c r="J54" s="33"/>
     </row>
     <row r="55" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A55" s="18"/>
-      <c r="B55" s="42"/>
-      <c r="C55" s="50" t="s">
+      <c r="B55" s="43"/>
+      <c r="C55" s="47" t="s">
         <v>120</v>
       </c>
-      <c r="D55" s="50" t="s">
+      <c r="D55" s="47" t="s">
         <v>121</v>
       </c>
-      <c r="E55" s="53" t="s">
+      <c r="E55" s="51" t="s">
         <v>122</v>
       </c>
-      <c r="F55" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="G55" s="35" t="s">
-        <v>119</v>
-      </c>
-      <c r="H55" s="48"/>
-      <c r="I55" s="41"/>
-      <c r="J55" s="34"/>
-    </row>
-    <row r="56" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+      <c r="F55" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="G55" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="H55" s="44"/>
+      <c r="I55" s="42"/>
+      <c r="J55" s="33"/>
+    </row>
+    <row r="56" spans="1:10" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A56" s="18"/>
-      <c r="B56" s="42"/>
-      <c r="C56" s="43"/>
-      <c r="D56" s="43"/>
-      <c r="E56" s="43"/>
-      <c r="F56" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="G56" s="65" t="s">
-        <v>249</v>
-      </c>
-      <c r="H56" s="48"/>
-      <c r="I56" s="41"/>
-      <c r="J56" s="34"/>
+      <c r="B56" s="43"/>
+      <c r="C56" s="46"/>
+      <c r="D56" s="46"/>
+      <c r="E56" s="46"/>
+      <c r="F56" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="G56" s="66" t="s">
+        <v>260</v>
+      </c>
+      <c r="H56" s="44"/>
+      <c r="I56" s="42"/>
+      <c r="J56" s="33"/>
     </row>
     <row r="57" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A57" s="18"/>
-      <c r="B57" s="42"/>
-      <c r="C57" s="31" t="s">
+      <c r="B57" s="43"/>
+      <c r="C57" s="30" t="s">
         <v>123</v>
       </c>
-      <c r="D57" s="31" t="s">
+      <c r="D57" s="30" t="s">
         <v>124</v>
       </c>
-      <c r="E57" s="37" t="s">
+      <c r="E57" s="36" t="s">
         <v>125</v>
       </c>
-      <c r="F57" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="G57" s="33" t="s">
+      <c r="F57" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="G57" s="34" t="s">
         <v>126</v>
       </c>
-      <c r="H57" s="48"/>
-      <c r="I57" s="41"/>
-      <c r="J57" s="34"/>
+      <c r="H57" s="44"/>
+      <c r="I57" s="42"/>
+      <c r="J57" s="33"/>
     </row>
     <row r="58" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A58" s="18"/>
-      <c r="B58" s="42"/>
-      <c r="C58" s="50" t="s">
+      <c r="B58" s="43"/>
+      <c r="C58" s="47" t="s">
         <v>127</v>
       </c>
-      <c r="D58" s="50" t="s">
+      <c r="D58" s="47" t="s">
         <v>128</v>
       </c>
-      <c r="E58" s="37" t="s">
+      <c r="E58" s="36" t="s">
         <v>129</v>
       </c>
-      <c r="F58" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="G58" s="33" t="s">
+      <c r="F58" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="G58" s="34" t="s">
         <v>130</v>
       </c>
-      <c r="H58" s="48"/>
-      <c r="I58" s="41"/>
-      <c r="J58" s="34"/>
+      <c r="H58" s="44"/>
+      <c r="I58" s="42"/>
+      <c r="J58" s="33"/>
     </row>
     <row r="59" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A59" s="18"/>
-      <c r="B59" s="42"/>
-      <c r="C59" s="42"/>
-      <c r="D59" s="42"/>
-      <c r="E59" s="37" t="s">
+      <c r="B59" s="43"/>
+      <c r="C59" s="43"/>
+      <c r="D59" s="43"/>
+      <c r="E59" s="36" t="s">
         <v>131</v>
       </c>
-      <c r="F59" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="G59" s="35" t="s">
-        <v>132</v>
-      </c>
-      <c r="H59" s="54"/>
-      <c r="I59" s="41"/>
-      <c r="J59" s="39"/>
+      <c r="F59" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="G59" s="67" t="s">
+        <v>259</v>
+      </c>
+      <c r="H59" s="52"/>
+      <c r="I59" s="42"/>
+      <c r="J59" s="38"/>
     </row>
     <row r="60" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A60" s="18"/>
-      <c r="B60" s="42"/>
-      <c r="C60" s="43"/>
-      <c r="D60" s="43"/>
-      <c r="E60" s="37" t="s">
-        <v>133</v>
-      </c>
-      <c r="F60" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="G60" s="33" t="s">
+      <c r="B60" s="43"/>
+      <c r="C60" s="46"/>
+      <c r="D60" s="46"/>
+      <c r="E60" s="36" t="s">
+        <v>132</v>
+      </c>
+      <c r="F60" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="G60" s="34" t="s">
         <v>130</v>
       </c>
-      <c r="H60" s="48"/>
-      <c r="I60" s="41"/>
-      <c r="J60" s="34"/>
+      <c r="H60" s="44"/>
+      <c r="I60" s="42"/>
+      <c r="J60" s="33"/>
     </row>
     <row r="61" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A61" s="18"/>
-      <c r="B61" s="42"/>
-      <c r="C61" s="31" t="s">
+      <c r="B61" s="43"/>
+      <c r="C61" s="30" t="s">
+        <v>133</v>
+      </c>
+      <c r="D61" s="30" t="s">
         <v>134</v>
       </c>
-      <c r="D61" s="31" t="s">
+      <c r="E61" s="36" t="s">
         <v>135</v>
       </c>
-      <c r="E61" s="37" t="s">
-        <v>136</v>
-      </c>
-      <c r="F61" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="G61" s="33" t="s">
-        <v>137</v>
-      </c>
-      <c r="H61" s="48"/>
-      <c r="I61" s="41"/>
-      <c r="J61" s="34"/>
+      <c r="F61" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="G61" s="34" t="s">
+        <v>126</v>
+      </c>
+      <c r="H61" s="44"/>
+      <c r="I61" s="42"/>
+      <c r="J61" s="33"/>
     </row>
     <row r="62" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A62" s="18"/>
-      <c r="B62" s="42"/>
-      <c r="C62" s="50" t="s">
+      <c r="B62" s="43"/>
+      <c r="C62" s="47" t="s">
+        <v>136</v>
+      </c>
+      <c r="D62" s="47" t="s">
+        <v>137</v>
+      </c>
+      <c r="E62" s="36" t="s">
         <v>138</v>
       </c>
-      <c r="D62" s="50" t="s">
+      <c r="F62" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="G62" s="34" t="s">
         <v>139</v>
       </c>
-      <c r="E62" s="37" t="s">
-        <v>140</v>
-      </c>
-      <c r="F62" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="G62" s="33" t="s">
-        <v>141</v>
-      </c>
-      <c r="H62" s="48"/>
-      <c r="I62" s="41"/>
-      <c r="J62" s="34"/>
+      <c r="H62" s="44"/>
+      <c r="I62" s="42"/>
+      <c r="J62" s="33"/>
     </row>
     <row r="63" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A63" s="18"/>
-      <c r="B63" s="42"/>
-      <c r="C63" s="43"/>
-      <c r="D63" s="43"/>
-      <c r="E63" s="37" t="s">
-        <v>142</v>
-      </c>
-      <c r="F63" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="G63" s="33" t="s">
-        <v>143</v>
-      </c>
-      <c r="H63" s="48"/>
-      <c r="I63" s="41"/>
-      <c r="J63" s="34"/>
+      <c r="B63" s="43"/>
+      <c r="C63" s="46"/>
+      <c r="D63" s="46"/>
+      <c r="E63" s="36" t="s">
+        <v>140</v>
+      </c>
+      <c r="F63" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="G63" s="34" t="s">
+        <v>141</v>
+      </c>
+      <c r="H63" s="44"/>
+      <c r="I63" s="42"/>
+      <c r="J63" s="33"/>
     </row>
     <row r="64" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A64" s="18"/>
-      <c r="B64" s="42"/>
-      <c r="C64" s="50" t="s">
+      <c r="B64" s="43"/>
+      <c r="C64" s="47" t="s">
+        <v>142</v>
+      </c>
+      <c r="D64" s="47" t="s">
+        <v>143</v>
+      </c>
+      <c r="E64" s="51" t="s">
         <v>144</v>
       </c>
-      <c r="D64" s="50" t="s">
-        <v>145</v>
-      </c>
-      <c r="E64" s="53" t="s">
-        <v>146</v>
-      </c>
-      <c r="F64" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="G64" s="33" t="s">
-        <v>147</v>
-      </c>
-      <c r="H64" s="48"/>
-      <c r="I64" s="41"/>
-      <c r="J64" s="34"/>
+      <c r="F64" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="G64" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="H64" s="44"/>
+      <c r="I64" s="42"/>
+      <c r="J64" s="33"/>
     </row>
     <row r="65" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A65" s="18"/>
-      <c r="B65" s="42"/>
-      <c r="C65" s="43"/>
-      <c r="D65" s="43"/>
-      <c r="E65" s="43"/>
-      <c r="F65" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="G65" s="33" t="s">
-        <v>148</v>
-      </c>
-      <c r="H65" s="48"/>
-      <c r="I65" s="41"/>
-      <c r="J65" s="34"/>
+      <c r="B65" s="43"/>
+      <c r="C65" s="46"/>
+      <c r="D65" s="46"/>
+      <c r="E65" s="46"/>
+      <c r="F65" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="G65" s="34" t="s">
+        <v>145</v>
+      </c>
+      <c r="H65" s="44"/>
+      <c r="I65" s="42"/>
+      <c r="J65" s="33"/>
     </row>
     <row r="66" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A66" s="18"/>
-      <c r="B66" s="42"/>
-      <c r="C66" s="46" t="s">
-        <v>149</v>
-      </c>
-      <c r="D66" s="64" t="s">
-        <v>238</v>
-      </c>
-      <c r="E66" s="47" t="s">
-        <v>150</v>
-      </c>
-      <c r="F66" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="G66" s="33"/>
-      <c r="H66" s="48"/>
-      <c r="I66" s="41"/>
-      <c r="J66" s="34"/>
+      <c r="B66" s="43"/>
+      <c r="C66" s="49" t="s">
+        <v>146</v>
+      </c>
+      <c r="D66" s="68" t="s">
+        <v>272</v>
+      </c>
+      <c r="E66" s="53" t="s">
+        <v>147</v>
+      </c>
+      <c r="F66" s="54" t="s">
+        <v>30</v>
+      </c>
+      <c r="G66" s="55"/>
+      <c r="H66" s="44"/>
+      <c r="I66" s="42"/>
+      <c r="J66" s="33"/>
     </row>
     <row r="67" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A67" s="18"/>
-      <c r="B67" s="42"/>
-      <c r="C67" s="43"/>
-      <c r="D67" s="43"/>
-      <c r="E67" s="43"/>
-      <c r="F67" s="40" t="s">
-        <v>38</v>
-      </c>
-      <c r="G67" s="33" t="s">
-        <v>154</v>
-      </c>
-      <c r="H67" s="48"/>
-      <c r="I67" s="41"/>
-      <c r="J67" s="34"/>
+      <c r="B67" s="43"/>
+      <c r="C67" s="46"/>
+      <c r="D67" s="46"/>
+      <c r="E67" s="46"/>
+      <c r="F67" s="46"/>
+      <c r="G67" s="46"/>
+      <c r="H67" s="44"/>
+      <c r="I67" s="42"/>
+      <c r="J67" s="33"/>
     </row>
     <row r="68" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A68" s="18"/>
-      <c r="B68" s="42"/>
-      <c r="C68" s="36" t="s">
-        <v>155</v>
-      </c>
-      <c r="D68" s="36" t="s">
-        <v>156</v>
-      </c>
-      <c r="E68" s="37" t="s">
-        <v>157</v>
-      </c>
-      <c r="F68" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="G68" s="33" t="s">
-        <v>158</v>
-      </c>
-      <c r="H68" s="48"/>
-      <c r="I68" s="41"/>
-      <c r="J68" s="34"/>
+      <c r="B68" s="43"/>
+      <c r="C68" s="49" t="s">
+        <v>148</v>
+      </c>
+      <c r="D68" s="49" t="s">
+        <v>149</v>
+      </c>
+      <c r="E68" s="39" t="s">
+        <v>150</v>
+      </c>
+      <c r="F68" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="G68" s="34" t="s">
+        <v>151</v>
+      </c>
+      <c r="H68" s="44"/>
+      <c r="I68" s="42"/>
+      <c r="J68" s="33"/>
     </row>
     <row r="69" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A69" s="18"/>
-      <c r="B69" s="42"/>
-      <c r="C69" s="50" t="s">
-        <v>159</v>
-      </c>
-      <c r="D69" s="50" t="s">
-        <v>161</v>
-      </c>
-      <c r="E69" s="53" t="s">
-        <v>162</v>
-      </c>
-      <c r="F69" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="G69" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="H69" s="48"/>
-      <c r="I69" s="41"/>
-      <c r="J69" s="34"/>
+      <c r="B69" s="43"/>
+      <c r="C69" s="46"/>
+      <c r="D69" s="46"/>
+      <c r="E69" s="36" t="s">
+        <v>152</v>
+      </c>
+      <c r="F69" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="G69" s="34" t="s">
+        <v>153</v>
+      </c>
+      <c r="H69" s="44"/>
+      <c r="I69" s="42"/>
+      <c r="J69" s="33"/>
     </row>
     <row r="70" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A70" s="18"/>
-      <c r="B70" s="42"/>
-      <c r="C70" s="42"/>
-      <c r="D70" s="42"/>
-      <c r="E70" s="43"/>
-      <c r="F70" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="G70" s="33" t="s">
-        <v>165</v>
-      </c>
-      <c r="H70" s="48"/>
-      <c r="I70" s="41"/>
-      <c r="J70" s="34"/>
+      <c r="B70" s="43"/>
+      <c r="C70" s="47" t="s">
+        <v>154</v>
+      </c>
+      <c r="D70" s="47" t="s">
+        <v>155</v>
+      </c>
+      <c r="E70" s="51" t="s">
+        <v>156</v>
+      </c>
+      <c r="F70" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="G70" s="34" t="s">
+        <v>157</v>
+      </c>
+      <c r="H70" s="44"/>
+      <c r="I70" s="42"/>
+      <c r="J70" s="33"/>
     </row>
     <row r="71" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A71" s="18"/>
-      <c r="B71" s="42"/>
-      <c r="C71" s="42"/>
-      <c r="D71" s="42"/>
-      <c r="E71" s="53" t="s">
-        <v>166</v>
-      </c>
-      <c r="F71" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="G71" s="33" t="s">
-        <v>70</v>
-      </c>
-      <c r="H71" s="48"/>
-      <c r="I71" s="41"/>
-      <c r="J71" s="34"/>
+      <c r="B71" s="43"/>
+      <c r="C71" s="43"/>
+      <c r="D71" s="43"/>
+      <c r="E71" s="46"/>
+      <c r="F71" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="G71" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="H71" s="44"/>
+      <c r="I71" s="42"/>
+      <c r="J71" s="33"/>
     </row>
     <row r="72" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A72" s="18"/>
-      <c r="B72" s="42"/>
-      <c r="C72" s="42"/>
-      <c r="D72" s="42"/>
-      <c r="E72" s="43"/>
-      <c r="F72" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="G72" s="33" t="s">
-        <v>167</v>
-      </c>
-      <c r="H72" s="48"/>
-      <c r="I72" s="41"/>
-      <c r="J72" s="34"/>
+      <c r="B72" s="43"/>
+      <c r="C72" s="43"/>
+      <c r="D72" s="43"/>
+      <c r="E72" s="51" t="s">
+        <v>159</v>
+      </c>
+      <c r="F72" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="G72" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="H72" s="44"/>
+      <c r="I72" s="42"/>
+      <c r="J72" s="33"/>
     </row>
     <row r="73" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A73" s="18"/>
-      <c r="B73" s="42"/>
-      <c r="C73" s="42"/>
-      <c r="D73" s="42"/>
-      <c r="E73" s="53" t="s">
-        <v>168</v>
-      </c>
-      <c r="F73" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="G73" s="33" t="s">
-        <v>169</v>
-      </c>
-      <c r="H73" s="48"/>
-      <c r="I73" s="41"/>
-      <c r="J73" s="34"/>
+      <c r="B73" s="43"/>
+      <c r="C73" s="43"/>
+      <c r="D73" s="43"/>
+      <c r="E73" s="46"/>
+      <c r="F73" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="G73" s="34" t="s">
+        <v>160</v>
+      </c>
+      <c r="H73" s="44"/>
+      <c r="I73" s="42"/>
+      <c r="J73" s="33"/>
     </row>
     <row r="74" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A74" s="18"/>
-      <c r="B74" s="42"/>
+      <c r="B74" s="43"/>
       <c r="C74" s="43"/>
       <c r="D74" s="43"/>
-      <c r="E74" s="43"/>
-      <c r="F74" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="G74" s="37" t="s">
-        <v>51</v>
-      </c>
-      <c r="H74" s="48"/>
-      <c r="I74" s="41"/>
-      <c r="J74" s="34"/>
+      <c r="E74" s="51" t="s">
+        <v>162</v>
+      </c>
+      <c r="F74" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="G74" s="34" t="s">
+        <v>161</v>
+      </c>
+      <c r="H74" s="44"/>
+      <c r="I74" s="42"/>
+      <c r="J74" s="33"/>
     </row>
     <row r="75" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A75" s="18"/>
-      <c r="B75" s="42"/>
-      <c r="C75" s="46" t="s">
-        <v>170</v>
-      </c>
-      <c r="D75" s="46" t="s">
-        <v>171</v>
-      </c>
-      <c r="E75" s="53" t="s">
-        <v>172</v>
-      </c>
-      <c r="F75" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="G75" s="35"/>
-      <c r="H75" s="48"/>
-      <c r="I75" s="41"/>
-      <c r="J75" s="34"/>
+      <c r="B75" s="43"/>
+      <c r="C75" s="46"/>
+      <c r="D75" s="46"/>
+      <c r="E75" s="46"/>
+      <c r="F75" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="G75" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="H75" s="44"/>
+      <c r="I75" s="42"/>
+      <c r="J75" s="33"/>
     </row>
     <row r="76" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A76" s="18"/>
-      <c r="B76" s="42"/>
-      <c r="C76" s="43"/>
-      <c r="D76" s="43"/>
-      <c r="E76" s="43"/>
-      <c r="F76" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="G76" s="35" t="s">
-        <v>173</v>
-      </c>
-      <c r="H76" s="48"/>
-      <c r="I76" s="41"/>
-      <c r="J76" s="34"/>
-    </row>
-    <row r="77" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+      <c r="B76" s="43"/>
+      <c r="C76" s="49" t="s">
+        <v>163</v>
+      </c>
+      <c r="D76" s="49" t="s">
+        <v>164</v>
+      </c>
+      <c r="E76" s="51" t="s">
+        <v>165</v>
+      </c>
+      <c r="F76" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="G76" s="34"/>
+      <c r="H76" s="44"/>
+      <c r="I76" s="42"/>
+      <c r="J76" s="33"/>
+    </row>
+    <row r="77" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A77" s="18"/>
-      <c r="B77" s="42"/>
-      <c r="C77" s="46" t="s">
-        <v>174</v>
-      </c>
-      <c r="D77" s="46" t="s">
-        <v>175</v>
-      </c>
-      <c r="E77" s="53" t="s">
-        <v>176</v>
-      </c>
-      <c r="F77" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="G77" s="65" t="s">
-        <v>248</v>
-      </c>
-      <c r="H77" s="48"/>
-      <c r="I77" s="41"/>
-      <c r="J77" s="34"/>
-    </row>
-    <row r="78" spans="1:10" ht="45" x14ac:dyDescent="0.2">
+      <c r="B77" s="43"/>
+      <c r="C77" s="46"/>
+      <c r="D77" s="46"/>
+      <c r="E77" s="46"/>
+      <c r="F77" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="G77" s="34" t="s">
+        <v>166</v>
+      </c>
+      <c r="H77" s="44"/>
+      <c r="I77" s="42"/>
+      <c r="J77" s="33"/>
+    </row>
+    <row r="78" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A78" s="18"/>
-      <c r="B78" s="42"/>
-      <c r="C78" s="43"/>
-      <c r="D78" s="43"/>
-      <c r="E78" s="43"/>
-      <c r="F78" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="G78" s="65" t="s">
-        <v>247</v>
-      </c>
-      <c r="H78" s="48"/>
-      <c r="I78" s="41"/>
-      <c r="J78" s="34"/>
-    </row>
-    <row r="79" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="B78" s="43"/>
+      <c r="C78" s="49" t="s">
+        <v>167</v>
+      </c>
+      <c r="D78" s="49" t="s">
+        <v>168</v>
+      </c>
+      <c r="E78" s="51" t="s">
+        <v>169</v>
+      </c>
+      <c r="F78" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="G78" s="66" t="s">
+        <v>258</v>
+      </c>
+      <c r="H78" s="44"/>
+      <c r="I78" s="42"/>
+      <c r="J78" s="33"/>
+    </row>
+    <row r="79" spans="1:10" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A79" s="18"/>
-      <c r="B79" s="42"/>
-      <c r="C79" s="31" t="s">
-        <v>177</v>
-      </c>
-      <c r="D79" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="E79" s="37" t="s">
-        <v>178</v>
-      </c>
-      <c r="F79" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="G79" s="33" t="s">
-        <v>143</v>
-      </c>
-      <c r="H79" s="48"/>
-      <c r="I79" s="41"/>
-      <c r="J79" s="34"/>
+      <c r="B79" s="43"/>
+      <c r="C79" s="46"/>
+      <c r="D79" s="46"/>
+      <c r="E79" s="46"/>
+      <c r="F79" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="G79" s="66" t="s">
+        <v>257</v>
+      </c>
+      <c r="H79" s="44"/>
+      <c r="I79" s="42"/>
+      <c r="J79" s="33"/>
     </row>
     <row r="80" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A80" s="18"/>
       <c r="B80" s="43"/>
-      <c r="C80" s="31" t="s">
+      <c r="C80" s="30" t="s">
+        <v>170</v>
+      </c>
+      <c r="D80" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="E80" s="36" t="s">
+        <v>171</v>
+      </c>
+      <c r="F80" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="G80" s="34" t="s">
+        <v>172</v>
+      </c>
+      <c r="H80" s="44"/>
+      <c r="I80" s="42"/>
+      <c r="J80" s="33"/>
+    </row>
+    <row r="81" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A81" s="18"/>
+      <c r="B81" s="46"/>
+      <c r="C81" s="30" t="s">
+        <v>173</v>
+      </c>
+      <c r="D81" s="30" t="s">
+        <v>116</v>
+      </c>
+      <c r="E81" s="36" t="s">
+        <v>174</v>
+      </c>
+      <c r="F81" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="G81" s="34" t="s">
+        <v>175</v>
+      </c>
+      <c r="H81" s="44"/>
+      <c r="I81" s="42"/>
+      <c r="J81" s="33"/>
+    </row>
+    <row r="82" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A82" s="18"/>
+      <c r="B82" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="C82" s="35" t="s">
+        <v>176</v>
+      </c>
+      <c r="D82" s="35" t="s">
+        <v>177</v>
+      </c>
+      <c r="E82" s="36" t="s">
+        <v>178</v>
+      </c>
+      <c r="F82" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="G82" s="34" t="s">
         <v>179</v>
       </c>
-      <c r="D80" s="31" t="s">
+      <c r="H82" s="44"/>
+      <c r="I82" s="42"/>
+      <c r="J82" s="33"/>
+    </row>
+    <row r="83" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A83" s="18"/>
+      <c r="B83" s="43"/>
+      <c r="C83" s="49" t="s">
         <v>180</v>
       </c>
-      <c r="E80" s="37" t="s">
+      <c r="D83" s="49" t="s">
         <v>181</v>
       </c>
-      <c r="F80" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="G80" s="33" t="s">
-        <v>130</v>
-      </c>
-      <c r="H80" s="48"/>
-      <c r="I80" s="41"/>
-      <c r="J80" s="34"/>
-    </row>
-    <row r="81" spans="1:10" ht="30" x14ac:dyDescent="0.2">
-      <c r="A81" s="18"/>
-      <c r="B81" s="59" t="s">
-        <v>27</v>
-      </c>
-      <c r="C81" s="36" t="s">
+      <c r="E83" s="36" t="s">
+        <v>119</v>
+      </c>
+      <c r="F83" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="G83" s="66" t="s">
+        <v>256</v>
+      </c>
+      <c r="H83" s="44"/>
+      <c r="I83" s="42"/>
+      <c r="J83" s="33"/>
+    </row>
+    <row r="84" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A84" s="18"/>
+      <c r="B84" s="43"/>
+      <c r="C84" s="46"/>
+      <c r="D84" s="46"/>
+      <c r="E84" s="36" t="s">
         <v>182</v>
       </c>
-      <c r="D81" s="36" t="s">
+      <c r="F84" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="G84" s="66" t="s">
+        <v>255</v>
+      </c>
+      <c r="H84" s="44"/>
+      <c r="I84" s="42"/>
+      <c r="J84" s="33"/>
+    </row>
+    <row r="85" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="18"/>
+      <c r="B85" s="43"/>
+      <c r="C85" s="35" t="s">
         <v>183</v>
       </c>
-      <c r="E81" s="37" t="s">
+      <c r="D85" s="35" t="s">
         <v>184</v>
       </c>
-      <c r="F81" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="G81" s="65" t="s">
-        <v>245</v>
-      </c>
-      <c r="H81" s="48"/>
-      <c r="I81" s="41"/>
-      <c r="J81" s="34"/>
-    </row>
-    <row r="82" spans="1:10" ht="30" x14ac:dyDescent="0.2">
-      <c r="A82" s="18"/>
-      <c r="B82" s="42"/>
-      <c r="C82" s="46" t="s">
+      <c r="E85" s="36" t="s">
         <v>185</v>
       </c>
-      <c r="D82" s="46" t="s">
+      <c r="F85" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="G85" s="34" t="s">
         <v>186</v>
       </c>
-      <c r="E82" s="37" t="s">
-        <v>118</v>
-      </c>
-      <c r="F82" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="G82" s="65" t="s">
-        <v>246</v>
-      </c>
-      <c r="H82" s="48"/>
-      <c r="I82" s="41"/>
-      <c r="J82" s="34"/>
-    </row>
-    <row r="83" spans="1:10" ht="30" x14ac:dyDescent="0.2">
-      <c r="A83" s="18"/>
-      <c r="B83" s="42"/>
-      <c r="C83" s="43"/>
-      <c r="D83" s="43"/>
-      <c r="E83" s="37" t="s">
+      <c r="H85" s="44"/>
+      <c r="I85" s="42"/>
+      <c r="J85" s="33"/>
+    </row>
+    <row r="86" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="18"/>
+      <c r="B86" s="43"/>
+      <c r="C86" s="49" t="s">
         <v>187</v>
       </c>
-      <c r="F83" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="G83" s="65" t="s">
-        <v>245</v>
-      </c>
-      <c r="H83" s="48"/>
-      <c r="I83" s="41"/>
-      <c r="J83" s="34"/>
-    </row>
-    <row r="84" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="18"/>
-      <c r="B84" s="42"/>
-      <c r="C84" s="36" t="s">
+      <c r="D86" s="68" t="s">
+        <v>271</v>
+      </c>
+      <c r="E86" s="36" t="s">
         <v>188</v>
       </c>
-      <c r="D84" s="36" t="s">
-        <v>189</v>
-      </c>
-      <c r="E84" s="37" t="s">
-        <v>190</v>
-      </c>
-      <c r="F84" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="G84" s="33" t="s">
-        <v>94</v>
-      </c>
-      <c r="H84" s="48"/>
-      <c r="I84" s="41"/>
-      <c r="J84" s="34"/>
-    </row>
-    <row r="85" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="18"/>
-      <c r="B85" s="42"/>
-      <c r="C85" s="46" t="s">
-        <v>191</v>
-      </c>
-      <c r="D85" s="64" t="s">
-        <v>239</v>
-      </c>
-      <c r="E85" s="37" t="s">
-        <v>192</v>
-      </c>
-      <c r="F85" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="G85" s="35" t="s">
-        <v>193</v>
-      </c>
-      <c r="H85" s="48"/>
-      <c r="I85" s="41"/>
-      <c r="J85" s="34"/>
-    </row>
-    <row r="86" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A86" s="18"/>
-      <c r="B86" s="42"/>
-      <c r="C86" s="43"/>
-      <c r="D86" s="43"/>
-      <c r="E86" s="37" t="s">
-        <v>194</v>
-      </c>
-      <c r="F86" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="G86" s="33" t="s">
-        <v>195</v>
-      </c>
-      <c r="H86" s="48"/>
-      <c r="I86" s="41"/>
-      <c r="J86" s="34"/>
+      <c r="F86" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="G86" s="66" t="s">
+        <v>254</v>
+      </c>
+      <c r="H86" s="44"/>
+      <c r="I86" s="42"/>
+      <c r="J86" s="33"/>
     </row>
     <row r="87" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A87" s="18"/>
-      <c r="B87" s="42"/>
-      <c r="C87" s="46" t="s">
-        <v>196</v>
-      </c>
-      <c r="D87" s="46" t="s">
-        <v>197</v>
-      </c>
-      <c r="E87" s="37" t="s">
-        <v>198</v>
-      </c>
-      <c r="F87" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="G87" s="35" t="s">
-        <v>199</v>
-      </c>
-      <c r="H87" s="48"/>
-      <c r="I87" s="41"/>
-      <c r="J87" s="34"/>
-    </row>
-    <row r="88" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="B87" s="43"/>
+      <c r="C87" s="46"/>
+      <c r="D87" s="46"/>
+      <c r="E87" s="36" t="s">
+        <v>189</v>
+      </c>
+      <c r="F87" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="G87" s="67" t="s">
+        <v>253</v>
+      </c>
+      <c r="H87" s="44"/>
+      <c r="I87" s="42"/>
+      <c r="J87" s="33"/>
+    </row>
+    <row r="88" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A88" s="18"/>
-      <c r="B88" s="42"/>
-      <c r="C88" s="43"/>
-      <c r="D88" s="43"/>
-      <c r="E88" s="37" t="s">
-        <v>200</v>
-      </c>
-      <c r="F88" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="G88" s="35" t="s">
-        <v>126</v>
-      </c>
-      <c r="H88" s="48"/>
-      <c r="I88" s="41"/>
-      <c r="J88" s="34"/>
-    </row>
-    <row r="89" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="B88" s="43"/>
+      <c r="C88" s="49" t="s">
+        <v>190</v>
+      </c>
+      <c r="D88" s="49" t="s">
+        <v>191</v>
+      </c>
+      <c r="E88" s="36" t="s">
+        <v>192</v>
+      </c>
+      <c r="F88" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="G88" s="66" t="s">
+        <v>252</v>
+      </c>
+      <c r="H88" s="44"/>
+      <c r="I88" s="42"/>
+      <c r="J88" s="33"/>
+    </row>
+    <row r="89" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="18"/>
-      <c r="B89" s="42"/>
-      <c r="C89" s="46" t="s">
-        <v>201</v>
-      </c>
-      <c r="D89" s="46" t="s">
-        <v>202</v>
-      </c>
-      <c r="E89" s="37" t="s">
-        <v>203</v>
-      </c>
-      <c r="F89" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="G89" s="33" t="s">
-        <v>126</v>
-      </c>
-      <c r="H89" s="48"/>
-      <c r="I89" s="41"/>
-      <c r="J89" s="34"/>
+      <c r="B89" s="43"/>
+      <c r="C89" s="46"/>
+      <c r="D89" s="46"/>
+      <c r="E89" s="36" t="s">
+        <v>193</v>
+      </c>
+      <c r="F89" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="G89" s="67" t="s">
+        <v>251</v>
+      </c>
+      <c r="H89" s="44"/>
+      <c r="I89" s="42"/>
+      <c r="J89" s="33"/>
     </row>
     <row r="90" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A90" s="18"/>
-      <c r="B90" s="42"/>
-      <c r="C90" s="43"/>
-      <c r="D90" s="43"/>
-      <c r="E90" s="37" t="s">
-        <v>204</v>
-      </c>
-      <c r="F90" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="G90" s="33" t="s">
-        <v>205</v>
-      </c>
-      <c r="H90" s="48"/>
-      <c r="I90" s="41"/>
-      <c r="J90" s="34"/>
+      <c r="B90" s="43"/>
+      <c r="C90" s="49" t="s">
+        <v>194</v>
+      </c>
+      <c r="D90" s="49" t="s">
+        <v>195</v>
+      </c>
+      <c r="E90" s="36" t="s">
+        <v>196</v>
+      </c>
+      <c r="F90" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="G90" s="34" t="s">
+        <v>197</v>
+      </c>
+      <c r="H90" s="44"/>
+      <c r="I90" s="42"/>
+      <c r="J90" s="33"/>
     </row>
     <row r="91" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A91" s="18"/>
-      <c r="B91" s="42"/>
-      <c r="C91" s="46" t="s">
-        <v>206</v>
-      </c>
-      <c r="D91" s="46" t="s">
-        <v>207</v>
-      </c>
-      <c r="E91" s="37" t="s">
-        <v>208</v>
-      </c>
-      <c r="F91" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="G91" s="33" t="s">
-        <v>209</v>
-      </c>
-      <c r="H91" s="48"/>
-      <c r="I91" s="41"/>
-      <c r="J91" s="34"/>
+      <c r="B91" s="43"/>
+      <c r="C91" s="46"/>
+      <c r="D91" s="46"/>
+      <c r="E91" s="36" t="s">
+        <v>198</v>
+      </c>
+      <c r="F91" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="G91" s="34" t="s">
+        <v>199</v>
+      </c>
+      <c r="H91" s="44"/>
+      <c r="I91" s="42"/>
+      <c r="J91" s="33"/>
     </row>
     <row r="92" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A92" s="18"/>
-      <c r="B92" s="42"/>
-      <c r="C92" s="43"/>
-      <c r="D92" s="43"/>
-      <c r="E92" s="37" t="s">
-        <v>204</v>
-      </c>
-      <c r="F92" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="G92" s="35" t="s">
-        <v>205</v>
-      </c>
-      <c r="H92" s="48"/>
-      <c r="I92" s="41"/>
-      <c r="J92" s="34"/>
+      <c r="B92" s="43"/>
+      <c r="C92" s="49" t="s">
+        <v>200</v>
+      </c>
+      <c r="D92" s="49" t="s">
+        <v>201</v>
+      </c>
+      <c r="E92" s="36" t="s">
+        <v>202</v>
+      </c>
+      <c r="F92" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="G92" s="67" t="s">
+        <v>250</v>
+      </c>
+      <c r="H92" s="44"/>
+      <c r="I92" s="42"/>
+      <c r="J92" s="33"/>
     </row>
     <row r="93" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A93" s="18"/>
-      <c r="B93" s="42"/>
-      <c r="C93" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="D93" s="50" t="s">
-        <v>211</v>
-      </c>
-      <c r="E93" s="53" t="s">
-        <v>212</v>
-      </c>
-      <c r="F93" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="G93" s="35"/>
-      <c r="H93" s="48"/>
-      <c r="I93" s="41"/>
-      <c r="J93" s="34"/>
+      <c r="B93" s="43"/>
+      <c r="C93" s="46"/>
+      <c r="D93" s="46"/>
+      <c r="E93" s="36" t="s">
+        <v>198</v>
+      </c>
+      <c r="F93" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="G93" s="67" t="s">
+        <v>249</v>
+      </c>
+      <c r="H93" s="44"/>
+      <c r="I93" s="42"/>
+      <c r="J93" s="33"/>
     </row>
     <row r="94" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A94" s="18"/>
-      <c r="B94" s="42"/>
-      <c r="C94" s="43"/>
-      <c r="D94" s="43"/>
-      <c r="E94" s="43"/>
-      <c r="F94" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="G94" s="35" t="s">
-        <v>213</v>
-      </c>
-      <c r="H94" s="48"/>
-      <c r="I94" s="41"/>
-      <c r="J94" s="34"/>
+      <c r="B94" s="43"/>
+      <c r="C94" s="47" t="s">
+        <v>203</v>
+      </c>
+      <c r="D94" s="47" t="s">
+        <v>204</v>
+      </c>
+      <c r="E94" s="51" t="s">
+        <v>205</v>
+      </c>
+      <c r="F94" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="G94" s="34"/>
+      <c r="H94" s="44"/>
+      <c r="I94" s="42"/>
+      <c r="J94" s="33"/>
     </row>
     <row r="95" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A95" s="18"/>
-      <c r="B95" s="42"/>
-      <c r="C95" s="50" t="s">
-        <v>214</v>
-      </c>
-      <c r="D95" s="50" t="s">
-        <v>215</v>
-      </c>
-      <c r="E95" s="53" t="s">
-        <v>216</v>
-      </c>
-      <c r="F95" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="G95" s="35" t="s">
-        <v>217</v>
-      </c>
-      <c r="H95" s="48"/>
-      <c r="I95" s="41"/>
-      <c r="J95" s="34"/>
-    </row>
-    <row r="96" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="B95" s="43"/>
+      <c r="C95" s="46"/>
+      <c r="D95" s="46"/>
+      <c r="E95" s="46"/>
+      <c r="F95" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="G95" s="34" t="s">
+        <v>206</v>
+      </c>
+      <c r="H95" s="44"/>
+      <c r="I95" s="42"/>
+      <c r="J95" s="33"/>
+    </row>
+    <row r="96" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A96" s="18"/>
-      <c r="B96" s="42"/>
-      <c r="C96" s="43"/>
-      <c r="D96" s="43"/>
-      <c r="E96" s="43"/>
-      <c r="F96" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="G96" s="35" t="s">
-        <v>213</v>
-      </c>
-      <c r="H96" s="48"/>
-      <c r="I96" s="41"/>
-      <c r="J96" s="34"/>
+      <c r="B96" s="43"/>
+      <c r="C96" s="47" t="s">
+        <v>207</v>
+      </c>
+      <c r="D96" s="47" t="s">
+        <v>208</v>
+      </c>
+      <c r="E96" s="51" t="s">
+        <v>209</v>
+      </c>
+      <c r="F96" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="G96" s="66" t="s">
+        <v>248</v>
+      </c>
+      <c r="H96" s="44"/>
+      <c r="I96" s="42"/>
+      <c r="J96" s="33"/>
     </row>
     <row r="97" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A97" s="18"/>
-      <c r="B97" s="42"/>
-      <c r="C97" s="46" t="s">
-        <v>151</v>
-      </c>
-      <c r="D97" s="46" t="s">
-        <v>152</v>
-      </c>
-      <c r="E97" s="53" t="s">
-        <v>153</v>
-      </c>
-      <c r="F97" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="G97" s="35"/>
-      <c r="H97" s="48"/>
-      <c r="I97" s="41"/>
-      <c r="J97" s="34"/>
+      <c r="B97" s="43"/>
+      <c r="C97" s="46"/>
+      <c r="D97" s="46"/>
+      <c r="E97" s="46"/>
+      <c r="F97" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="G97" s="34" t="s">
+        <v>206</v>
+      </c>
+      <c r="H97" s="44"/>
+      <c r="I97" s="42"/>
+      <c r="J97" s="33"/>
     </row>
     <row r="98" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A98" s="18"/>
-      <c r="B98" s="42"/>
-      <c r="C98" s="43"/>
-      <c r="D98" s="43"/>
-      <c r="E98" s="43"/>
-      <c r="F98" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="G98" s="35" t="s">
-        <v>154</v>
-      </c>
-      <c r="H98" s="48"/>
-      <c r="I98" s="41"/>
-      <c r="J98" s="34"/>
+      <c r="B98" s="43"/>
+      <c r="C98" s="49" t="s">
+        <v>210</v>
+      </c>
+      <c r="D98" s="49" t="s">
+        <v>211</v>
+      </c>
+      <c r="E98" s="51" t="s">
+        <v>212</v>
+      </c>
+      <c r="F98" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="G98" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="H98" s="44"/>
+      <c r="I98" s="42"/>
+      <c r="J98" s="33"/>
     </row>
     <row r="99" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A99" s="18"/>
-      <c r="B99" s="42"/>
-      <c r="C99" s="46" t="s">
-        <v>160</v>
-      </c>
-      <c r="D99" s="46" t="s">
-        <v>163</v>
-      </c>
-      <c r="E99" s="53" t="s">
-        <v>164</v>
-      </c>
-      <c r="F99" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="G99" s="33" t="s">
-        <v>58</v>
-      </c>
-      <c r="H99" s="48"/>
-      <c r="I99" s="41"/>
-      <c r="J99" s="34"/>
+      <c r="B99" s="43"/>
+      <c r="C99" s="43"/>
+      <c r="D99" s="43"/>
+      <c r="E99" s="46"/>
+      <c r="F99" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="G99" s="34" t="s">
+        <v>151</v>
+      </c>
+      <c r="H99" s="44"/>
+      <c r="I99" s="42"/>
+      <c r="J99" s="33"/>
     </row>
     <row r="100" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A100" s="18"/>
-      <c r="B100" s="42"/>
+      <c r="B100" s="43"/>
       <c r="C100" s="43"/>
       <c r="D100" s="43"/>
-      <c r="E100" s="43"/>
-      <c r="F100" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="G100" s="35" t="s">
-        <v>154</v>
-      </c>
-      <c r="H100" s="48"/>
-      <c r="I100" s="41"/>
-      <c r="J100" s="34"/>
+      <c r="E100" s="36" t="s">
+        <v>213</v>
+      </c>
+      <c r="F100" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="G100" s="34" t="s">
+        <v>151</v>
+      </c>
+      <c r="H100" s="64"/>
+      <c r="I100" s="42"/>
+      <c r="J100" s="33"/>
     </row>
     <row r="101" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A101" s="18"/>
-      <c r="B101" s="42"/>
-      <c r="C101" s="50" t="s">
-        <v>218</v>
-      </c>
-      <c r="D101" s="50" t="s">
-        <v>219</v>
-      </c>
-      <c r="E101" s="53" t="s">
-        <v>220</v>
-      </c>
-      <c r="F101" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="G101" s="35"/>
-      <c r="H101" s="48"/>
-      <c r="I101" s="41"/>
-      <c r="J101" s="34"/>
+      <c r="B101" s="43"/>
+      <c r="C101" s="43"/>
+      <c r="D101" s="43"/>
+      <c r="E101" s="39" t="s">
+        <v>214</v>
+      </c>
+      <c r="F101" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="G101" s="67" t="s">
+        <v>247</v>
+      </c>
+      <c r="H101" s="64"/>
+      <c r="I101" s="42"/>
+      <c r="J101" s="33"/>
     </row>
     <row r="102" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A102" s="18"/>
-      <c r="B102" s="42"/>
-      <c r="C102" s="43"/>
-      <c r="D102" s="43"/>
-      <c r="E102" s="43"/>
-      <c r="F102" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="G102" s="35" t="s">
-        <v>221</v>
-      </c>
-      <c r="H102" s="48"/>
-      <c r="I102" s="41"/>
-      <c r="J102" s="34"/>
+      <c r="B102" s="43"/>
+      <c r="C102" s="46"/>
+      <c r="D102" s="46"/>
+      <c r="E102" s="39" t="s">
+        <v>215</v>
+      </c>
+      <c r="F102" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="G102" s="34" t="s">
+        <v>216</v>
+      </c>
+      <c r="H102" s="64"/>
+      <c r="I102" s="42"/>
+      <c r="J102" s="33"/>
     </row>
     <row r="103" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A103" s="18"/>
-      <c r="B103" s="42"/>
-      <c r="C103" s="50" t="s">
+      <c r="B103" s="43"/>
+      <c r="C103" s="47" t="s">
+        <v>217</v>
+      </c>
+      <c r="D103" s="47" t="s">
+        <v>218</v>
+      </c>
+      <c r="E103" s="51" t="s">
+        <v>219</v>
+      </c>
+      <c r="F103" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="G103" s="34"/>
+      <c r="H103" s="44"/>
+      <c r="I103" s="42"/>
+      <c r="J103" s="33"/>
+    </row>
+    <row r="104" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A104" s="18"/>
+      <c r="B104" s="43"/>
+      <c r="C104" s="46"/>
+      <c r="D104" s="46"/>
+      <c r="E104" s="46"/>
+      <c r="F104" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="G104" s="34" t="s">
+        <v>220</v>
+      </c>
+      <c r="H104" s="44"/>
+      <c r="I104" s="42"/>
+      <c r="J104" s="33"/>
+    </row>
+    <row r="105" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A105" s="18"/>
+      <c r="B105" s="43"/>
+      <c r="C105" s="47" t="s">
+        <v>221</v>
+      </c>
+      <c r="D105" s="47" t="s">
         <v>222</v>
       </c>
-      <c r="D103" s="50" t="s">
+      <c r="E105" s="51" t="s">
         <v>223</v>
       </c>
-      <c r="E103" s="55" t="s">
-        <v>224</v>
-      </c>
-      <c r="F103" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="G103" s="33" t="s">
-        <v>79</v>
-      </c>
-      <c r="H103" s="48"/>
-      <c r="I103" s="41"/>
-      <c r="J103" s="34"/>
-    </row>
-    <row r="104" spans="1:10" ht="30" x14ac:dyDescent="0.2">
-      <c r="A104" s="18"/>
-      <c r="B104" s="42"/>
-      <c r="C104" s="43"/>
-      <c r="D104" s="43"/>
-      <c r="E104" s="43"/>
-      <c r="F104" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="G104" s="65" t="s">
-        <v>244</v>
-      </c>
-      <c r="H104" s="48"/>
-      <c r="I104" s="41"/>
-      <c r="J104" s="34"/>
-    </row>
-    <row r="105" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A105" s="18"/>
-      <c r="B105" s="42"/>
-      <c r="C105" s="46" t="s">
-        <v>225</v>
-      </c>
-      <c r="D105" s="46" t="s">
-        <v>226</v>
-      </c>
-      <c r="E105" s="55" t="s">
-        <v>227</v>
-      </c>
-      <c r="F105" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="G105" s="35"/>
-      <c r="H105" s="48"/>
-      <c r="I105" s="41"/>
-      <c r="J105" s="34"/>
+      <c r="F105" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="G105" s="66" t="s">
+        <v>246</v>
+      </c>
+      <c r="H105" s="44"/>
+      <c r="I105" s="42"/>
+      <c r="J105" s="33"/>
     </row>
     <row r="106" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A106" s="18"/>
-      <c r="B106" s="42"/>
-      <c r="C106" s="43"/>
-      <c r="D106" s="43"/>
-      <c r="E106" s="43"/>
-      <c r="F106" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="G106" s="35" t="s">
+      <c r="B106" s="43"/>
+      <c r="C106" s="46"/>
+      <c r="D106" s="46"/>
+      <c r="E106" s="46"/>
+      <c r="F106" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="G106" s="34" t="s">
+        <v>220</v>
+      </c>
+      <c r="H106" s="44"/>
+      <c r="I106" s="42"/>
+      <c r="J106" s="33"/>
+    </row>
+    <row r="107" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A107" s="18"/>
+      <c r="B107" s="43"/>
+      <c r="C107" s="49" t="s">
+        <v>224</v>
+      </c>
+      <c r="D107" s="49" t="s">
+        <v>225</v>
+      </c>
+      <c r="E107" s="51" t="s">
+        <v>226</v>
+      </c>
+      <c r="F107" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="G107" s="34"/>
+      <c r="H107" s="44"/>
+      <c r="I107" s="42"/>
+      <c r="J107" s="33"/>
+    </row>
+    <row r="108" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A108" s="18"/>
+      <c r="B108" s="43"/>
+      <c r="C108" s="46"/>
+      <c r="D108" s="46"/>
+      <c r="E108" s="46"/>
+      <c r="F108" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="G108" s="34" t="s">
+        <v>227</v>
+      </c>
+      <c r="H108" s="44"/>
+      <c r="I108" s="42"/>
+      <c r="J108" s="33"/>
+    </row>
+    <row r="109" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A109" s="18"/>
+      <c r="B109" s="43"/>
+      <c r="C109" s="49" t="s">
         <v>228</v>
       </c>
-      <c r="H106" s="48"/>
-      <c r="I106" s="41"/>
-      <c r="J106" s="34"/>
-    </row>
-    <row r="107" spans="1:10" ht="30" x14ac:dyDescent="0.2">
-      <c r="A107" s="18"/>
-      <c r="B107" s="42"/>
-      <c r="C107" s="46" t="s">
+      <c r="D109" s="49" t="s">
         <v>229</v>
       </c>
-      <c r="D107" s="46" t="s">
+      <c r="E109" s="51" t="s">
         <v>230</v>
       </c>
-      <c r="E107" s="55" t="s">
-        <v>231</v>
-      </c>
-      <c r="F107" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="G107" s="66" t="s">
-        <v>243</v>
-      </c>
-      <c r="H107" s="48"/>
-      <c r="I107" s="41"/>
-      <c r="J107" s="34"/>
-    </row>
-    <row r="108" spans="1:10" ht="45" x14ac:dyDescent="0.2">
-      <c r="A108" s="18"/>
-      <c r="B108" s="42"/>
-      <c r="C108" s="43"/>
-      <c r="D108" s="43"/>
-      <c r="E108" s="43"/>
-      <c r="F108" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="G108" s="65" t="s">
-        <v>242</v>
-      </c>
-      <c r="H108" s="48"/>
-      <c r="I108" s="41"/>
-      <c r="J108" s="34"/>
-    </row>
-    <row r="109" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A109" s="18"/>
-      <c r="B109" s="42"/>
-      <c r="C109" s="50" t="s">
-        <v>232</v>
-      </c>
-      <c r="D109" s="50" t="s">
-        <v>233</v>
-      </c>
-      <c r="E109" s="55" t="s">
-        <v>234</v>
-      </c>
-      <c r="F109" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="G109" s="35"/>
-      <c r="H109" s="48"/>
-      <c r="I109" s="41"/>
-      <c r="J109" s="34"/>
+      <c r="F109" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="G109" s="66" t="s">
+        <v>245</v>
+      </c>
+      <c r="H109" s="44"/>
+      <c r="I109" s="42"/>
+      <c r="J109" s="33"/>
     </row>
     <row r="110" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A110" s="18"/>
-      <c r="B110" s="42"/>
-      <c r="C110" s="43"/>
-      <c r="D110" s="43"/>
-      <c r="E110" s="43"/>
-      <c r="F110" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="G110" s="35" t="s">
-        <v>173</v>
-      </c>
-      <c r="H110" s="48"/>
-      <c r="I110" s="41"/>
-      <c r="J110" s="34"/>
-    </row>
-    <row r="111" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+      <c r="B110" s="43"/>
+      <c r="C110" s="46"/>
+      <c r="D110" s="46"/>
+      <c r="E110" s="46"/>
+      <c r="F110" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="G110" s="34" t="s">
+        <v>227</v>
+      </c>
+      <c r="H110" s="44"/>
+      <c r="I110" s="42"/>
+      <c r="J110" s="33"/>
+    </row>
+    <row r="111" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A111" s="18"/>
-      <c r="B111" s="42"/>
-      <c r="C111" s="50" t="s">
-        <v>235</v>
-      </c>
-      <c r="D111" s="50" t="s">
-        <v>236</v>
-      </c>
-      <c r="E111" s="55" t="s">
-        <v>237</v>
-      </c>
-      <c r="F111" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="G111" s="66" t="s">
-        <v>241</v>
-      </c>
-      <c r="H111" s="48"/>
-      <c r="I111" s="41"/>
-      <c r="J111" s="34"/>
-    </row>
-    <row r="112" spans="1:10" ht="45" x14ac:dyDescent="0.2">
+      <c r="B111" s="43"/>
+      <c r="C111" s="47" t="s">
+        <v>231</v>
+      </c>
+      <c r="D111" s="47" t="s">
+        <v>232</v>
+      </c>
+      <c r="E111" s="51" t="s">
+        <v>233</v>
+      </c>
+      <c r="F111" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="G111" s="34"/>
+      <c r="H111" s="44"/>
+      <c r="I111" s="42"/>
+      <c r="J111" s="33"/>
+    </row>
+    <row r="112" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A112" s="18"/>
       <c r="B112" s="43"/>
-      <c r="C112" s="43"/>
-      <c r="D112" s="43"/>
-      <c r="E112" s="43"/>
-      <c r="F112" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="G112" s="65" t="s">
-        <v>240</v>
-      </c>
-      <c r="H112" s="48"/>
-      <c r="I112" s="41"/>
-      <c r="J112" s="34"/>
-    </row>
-    <row r="113" spans="5:7" x14ac:dyDescent="0.2">
-      <c r="E113" s="16"/>
-      <c r="F113" s="17"/>
-      <c r="G113" s="34"/>
-    </row>
-    <row r="114" spans="5:7" x14ac:dyDescent="0.2">
-      <c r="E114" s="16"/>
-      <c r="F114" s="17"/>
-      <c r="G114" s="17"/>
-    </row>
-    <row r="115" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="C112" s="46"/>
+      <c r="D112" s="46"/>
+      <c r="E112" s="46"/>
+      <c r="F112" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="G112" s="34" t="s">
+        <v>234</v>
+      </c>
+      <c r="H112" s="44"/>
+      <c r="I112" s="42"/>
+      <c r="J112" s="33"/>
+    </row>
+    <row r="113" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A113" s="18"/>
+      <c r="B113" s="43"/>
+      <c r="C113" s="47" t="s">
+        <v>235</v>
+      </c>
+      <c r="D113" s="47" t="s">
+        <v>236</v>
+      </c>
+      <c r="E113" s="51" t="s">
+        <v>237</v>
+      </c>
+      <c r="F113" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="G113" s="66" t="s">
+        <v>244</v>
+      </c>
+      <c r="H113" s="44"/>
+      <c r="I113" s="42"/>
+      <c r="J113" s="33"/>
+    </row>
+    <row r="114" spans="1:10" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A114" s="18"/>
+      <c r="B114" s="46"/>
+      <c r="C114" s="46"/>
+      <c r="D114" s="46"/>
+      <c r="E114" s="46"/>
+      <c r="F114" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="G114" s="66" t="s">
+        <v>243</v>
+      </c>
+      <c r="H114" s="44"/>
+      <c r="I114" s="42"/>
+      <c r="J114" s="33"/>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.2">
       <c r="E115" s="16"/>
       <c r="F115" s="17"/>
-      <c r="G115" s="17"/>
-    </row>
-    <row r="116" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="G115" s="33"/>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.2">
       <c r="E116" s="16"/>
       <c r="F116" s="17"/>
       <c r="G116" s="17"/>
     </row>
-    <row r="117" spans="5:7" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.2">
       <c r="E117" s="16"/>
       <c r="F117" s="17"/>
       <c r="G117" s="17"/>
     </row>
-    <row r="118" spans="5:7" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.2">
       <c r="E118" s="16"/>
       <c r="F118" s="17"/>
       <c r="G118" s="17"/>
     </row>
-    <row r="119" spans="5:7" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.2">
       <c r="E119" s="16"/>
       <c r="F119" s="17"/>
       <c r="G119" s="17"/>
     </row>
-    <row r="120" spans="5:7" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.2">
       <c r="E120" s="16"/>
       <c r="F120" s="17"/>
       <c r="G120" s="17"/>
     </row>
-    <row r="121" spans="5:7" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.2">
       <c r="E121" s="16"/>
       <c r="F121" s="17"/>
       <c r="G121" s="17"/>
     </row>
-    <row r="122" spans="5:7" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.2">
       <c r="E122" s="16"/>
       <c r="F122" s="17"/>
       <c r="G122" s="17"/>
     </row>
-    <row r="123" spans="5:7" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.2">
       <c r="E123" s="16"/>
       <c r="F123" s="17"/>
       <c r="G123" s="17"/>
     </row>
-    <row r="124" spans="5:7" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.2">
       <c r="E124" s="16"/>
       <c r="F124" s="17"/>
       <c r="G124" s="17"/>
     </row>
-    <row r="125" spans="5:7" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.2">
       <c r="E125" s="16"/>
       <c r="F125" s="17"/>
       <c r="G125" s="17"/>
     </row>
-    <row r="126" spans="5:7" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.2">
       <c r="E126" s="16"/>
       <c r="F126" s="17"/>
       <c r="G126" s="17"/>
     </row>
-    <row r="127" spans="5:7" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.2">
       <c r="E127" s="16"/>
       <c r="F127" s="17"/>
       <c r="G127" s="17"/>
     </row>
-    <row r="128" spans="5:7" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.2">
       <c r="E128" s="16"/>
       <c r="F128" s="17"/>
       <c r="G128" s="17"/>
@@ -8171,90 +8244,100 @@
       <c r="F998" s="17"/>
       <c r="G998" s="17"/>
     </row>
+    <row r="999" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E999" s="16"/>
+      <c r="F999" s="17"/>
+      <c r="G999" s="17"/>
+    </row>
+    <row r="1000" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E1000" s="16"/>
+      <c r="F1000" s="17"/>
+      <c r="G1000" s="17"/>
+    </row>
   </sheetData>
-  <mergeCells count="204">
+  <mergeCells count="207">
+    <mergeCell ref="C105:C106"/>
+    <mergeCell ref="D105:D106"/>
+    <mergeCell ref="E105:E106"/>
+    <mergeCell ref="H105:I105"/>
+    <mergeCell ref="H106:I106"/>
+    <mergeCell ref="H103:I103"/>
+    <mergeCell ref="H104:I104"/>
+    <mergeCell ref="C98:C102"/>
+    <mergeCell ref="D98:D102"/>
+    <mergeCell ref="E98:E99"/>
+    <mergeCell ref="H100:I100"/>
+    <mergeCell ref="H101:I101"/>
+    <mergeCell ref="H102:I102"/>
     <mergeCell ref="C103:C104"/>
     <mergeCell ref="D103:D104"/>
     <mergeCell ref="E103:E104"/>
-    <mergeCell ref="H103:I103"/>
-    <mergeCell ref="H104:I104"/>
-    <mergeCell ref="C101:C102"/>
-    <mergeCell ref="D101:D102"/>
-    <mergeCell ref="E101:E102"/>
+    <mergeCell ref="H98:I98"/>
+    <mergeCell ref="H99:I99"/>
+    <mergeCell ref="D94:D95"/>
+    <mergeCell ref="E94:E95"/>
+    <mergeCell ref="C96:C97"/>
+    <mergeCell ref="D96:D97"/>
+    <mergeCell ref="E96:E97"/>
+    <mergeCell ref="H96:I96"/>
     <mergeCell ref="H97:I97"/>
-    <mergeCell ref="H98:I98"/>
-    <mergeCell ref="C99:C100"/>
-    <mergeCell ref="D99:D100"/>
-    <mergeCell ref="E99:E100"/>
-    <mergeCell ref="H99:I99"/>
-    <mergeCell ref="H100:I100"/>
-    <mergeCell ref="H101:I101"/>
-    <mergeCell ref="H102:I102"/>
-    <mergeCell ref="C97:C98"/>
-    <mergeCell ref="D97:D98"/>
-    <mergeCell ref="E97:E98"/>
-    <mergeCell ref="D93:D94"/>
-    <mergeCell ref="E93:E94"/>
-    <mergeCell ref="C95:C96"/>
-    <mergeCell ref="D95:D96"/>
-    <mergeCell ref="E95:E96"/>
+    <mergeCell ref="H94:I94"/>
     <mergeCell ref="H95:I95"/>
-    <mergeCell ref="H96:I96"/>
+    <mergeCell ref="H90:I90"/>
+    <mergeCell ref="H91:I91"/>
+    <mergeCell ref="C92:C93"/>
+    <mergeCell ref="D92:D93"/>
+    <mergeCell ref="H92:I92"/>
     <mergeCell ref="H93:I93"/>
-    <mergeCell ref="H94:I94"/>
+    <mergeCell ref="C94:C95"/>
+    <mergeCell ref="C88:C89"/>
+    <mergeCell ref="C90:C91"/>
+    <mergeCell ref="D90:D91"/>
+    <mergeCell ref="C86:C87"/>
+    <mergeCell ref="D86:D87"/>
+    <mergeCell ref="H86:I86"/>
+    <mergeCell ref="H87:I87"/>
+    <mergeCell ref="D88:D89"/>
+    <mergeCell ref="H88:I88"/>
     <mergeCell ref="H89:I89"/>
-    <mergeCell ref="H90:I90"/>
-    <mergeCell ref="C91:C92"/>
-    <mergeCell ref="D91:D92"/>
-    <mergeCell ref="H91:I91"/>
-    <mergeCell ref="H92:I92"/>
-    <mergeCell ref="C93:C94"/>
-    <mergeCell ref="C89:C90"/>
-    <mergeCell ref="D89:D90"/>
-    <mergeCell ref="C85:C86"/>
-    <mergeCell ref="D85:D86"/>
+    <mergeCell ref="H83:I83"/>
+    <mergeCell ref="H84:I84"/>
     <mergeCell ref="H85:I85"/>
-    <mergeCell ref="H86:I86"/>
-    <mergeCell ref="D87:D88"/>
-    <mergeCell ref="H87:I87"/>
-    <mergeCell ref="H88:I88"/>
-    <mergeCell ref="H84:I84"/>
-    <mergeCell ref="D77:D78"/>
-    <mergeCell ref="E77:E78"/>
+    <mergeCell ref="H78:I78"/>
     <mergeCell ref="H79:I79"/>
     <mergeCell ref="H80:I80"/>
     <mergeCell ref="H81:I81"/>
-    <mergeCell ref="C82:C83"/>
-    <mergeCell ref="D82:D83"/>
-    <mergeCell ref="C87:C88"/>
+    <mergeCell ref="H82:I82"/>
+    <mergeCell ref="C83:C84"/>
+    <mergeCell ref="D83:D84"/>
     <mergeCell ref="H47:I47"/>
     <mergeCell ref="H48:I48"/>
     <mergeCell ref="H49:I49"/>
     <mergeCell ref="H50:I50"/>
     <mergeCell ref="H51:I51"/>
     <mergeCell ref="H52:I52"/>
-    <mergeCell ref="H109:I109"/>
-    <mergeCell ref="H110:I110"/>
-    <mergeCell ref="C111:C112"/>
-    <mergeCell ref="D111:D112"/>
-    <mergeCell ref="E111:E112"/>
     <mergeCell ref="H111:I111"/>
     <mergeCell ref="H112:I112"/>
+    <mergeCell ref="C113:C114"/>
+    <mergeCell ref="D113:D114"/>
+    <mergeCell ref="E113:E114"/>
+    <mergeCell ref="H113:I113"/>
+    <mergeCell ref="H114:I114"/>
+    <mergeCell ref="H69:I69"/>
     <mergeCell ref="H72:I72"/>
-    <mergeCell ref="H73:I73"/>
-    <mergeCell ref="C66:C67"/>
-    <mergeCell ref="D69:D74"/>
-    <mergeCell ref="E69:E70"/>
-    <mergeCell ref="E71:E72"/>
-    <mergeCell ref="H71:I71"/>
-    <mergeCell ref="E73:E74"/>
+    <mergeCell ref="E72:E73"/>
+    <mergeCell ref="E74:E75"/>
     <mergeCell ref="H74:I74"/>
-    <mergeCell ref="H82:I82"/>
-    <mergeCell ref="H83:I83"/>
+    <mergeCell ref="H75:I75"/>
+    <mergeCell ref="C68:C69"/>
+    <mergeCell ref="D68:D69"/>
+    <mergeCell ref="H68:I68"/>
+    <mergeCell ref="C70:C75"/>
+    <mergeCell ref="D70:D75"/>
     <mergeCell ref="B3:B5"/>
     <mergeCell ref="B15:B47"/>
-    <mergeCell ref="B48:B80"/>
-    <mergeCell ref="B81:B112"/>
+    <mergeCell ref="B48:B81"/>
+    <mergeCell ref="B82:B114"/>
     <mergeCell ref="C3:D5"/>
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="H4:I4"/>
@@ -8275,37 +8358,40 @@
     <mergeCell ref="C27:C28"/>
     <mergeCell ref="D27:D28"/>
     <mergeCell ref="D30:D35"/>
+    <mergeCell ref="C111:C112"/>
+    <mergeCell ref="D111:D112"/>
+    <mergeCell ref="E111:E112"/>
+    <mergeCell ref="H107:I107"/>
+    <mergeCell ref="H108:I108"/>
     <mergeCell ref="C109:C110"/>
     <mergeCell ref="D109:D110"/>
     <mergeCell ref="E109:E110"/>
-    <mergeCell ref="H105:I105"/>
-    <mergeCell ref="H106:I106"/>
+    <mergeCell ref="H109:I109"/>
+    <mergeCell ref="H110:I110"/>
     <mergeCell ref="C107:C108"/>
     <mergeCell ref="D107:D108"/>
     <mergeCell ref="E107:E108"/>
-    <mergeCell ref="H107:I107"/>
-    <mergeCell ref="H108:I108"/>
-    <mergeCell ref="C105:C106"/>
-    <mergeCell ref="D105:D106"/>
-    <mergeCell ref="E105:E106"/>
+    <mergeCell ref="C78:C79"/>
+    <mergeCell ref="D78:D79"/>
+    <mergeCell ref="E78:E79"/>
+    <mergeCell ref="H70:I70"/>
+    <mergeCell ref="H71:I71"/>
+    <mergeCell ref="C76:C77"/>
+    <mergeCell ref="D76:D77"/>
+    <mergeCell ref="E76:E77"/>
+    <mergeCell ref="H76:I76"/>
     <mergeCell ref="H77:I77"/>
-    <mergeCell ref="H78:I78"/>
-    <mergeCell ref="C69:C74"/>
-    <mergeCell ref="C75:C76"/>
-    <mergeCell ref="D75:D76"/>
-    <mergeCell ref="E75:E76"/>
-    <mergeCell ref="H75:I75"/>
-    <mergeCell ref="H76:I76"/>
-    <mergeCell ref="C77:C78"/>
-    <mergeCell ref="H69:I69"/>
-    <mergeCell ref="H70:I70"/>
+    <mergeCell ref="E70:E71"/>
+    <mergeCell ref="H73:I73"/>
+    <mergeCell ref="H66:I66"/>
+    <mergeCell ref="H67:I67"/>
     <mergeCell ref="H64:I64"/>
     <mergeCell ref="H65:I65"/>
+    <mergeCell ref="C66:C67"/>
     <mergeCell ref="D66:D67"/>
     <mergeCell ref="E66:E67"/>
-    <mergeCell ref="H66:I66"/>
-    <mergeCell ref="H67:I67"/>
-    <mergeCell ref="H68:I68"/>
+    <mergeCell ref="F66:F67"/>
+    <mergeCell ref="G66:G67"/>
     <mergeCell ref="C62:C63"/>
     <mergeCell ref="C64:C65"/>
     <mergeCell ref="D64:D65"/>
@@ -8378,7 +8464,7 @@
     <mergeCell ref="H35:I35"/>
     <mergeCell ref="H36:I36"/>
   </mergeCells>
-  <phoneticPr fontId="13" type="noConversion"/>
+  <phoneticPr fontId="16" type="noConversion"/>
   <printOptions horizontalCentered="1" gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" fitToHeight="0" pageOrder="overThenDown" orientation="landscape" cellComments="atEnd"/>
